--- a/wetlab_protocols/amplicon_SOPs/primer_designs/2-step_primer_designs.xlsx
+++ b/wetlab_protocols/amplicon_SOPs/primer_designs/2-step_primer_designs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ryan/scripts/analysis_templates/wetlab_protocols/amplicon_SOPs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ryan/scripts/analysis_templates/wetlab_protocols/amplicon_SOPs/primer_designs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ADEF364-CE99-E946-BD60-73514B9BD781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9817271-FCCD-2243-AE2F-397B21899CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1st Step" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="204">
   <si>
     <t>#The data from these primers will include the linker and primer sequences, which will need to be trimmed before analysis</t>
   </si>
@@ -481,6 +481,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>cox1</t>
@@ -544,6 +545,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>cox1</t>
@@ -604,6 +606,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>cox1</t>
@@ -664,6 +667,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>cox1</t>
@@ -697,41 +701,21 @@
     <r>
       <rPr>
         <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cob</t>
-    </r>
-  </si>
-  <si>
-    <t>GTTGCTAGTAGTAATTTGGATTG</t>
-  </si>
-  <si>
-    <r>
-      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACA</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GGTTGCTAGTAGTAATTTGGATTG</t>
-    </r>
-  </si>
-  <si>
-    <t>MCytbR</t>
-  </si>
-  <si>
-    <t>CAAACCCACCAAGCTTAATA</t>
-  </si>
-  <si>
-    <r>
-      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACA</t>
+      <t>cob</t>
+    </r>
+  </si>
+  <si>
+    <t>GTTGCTAGTAGTAATTTGGATTG</t>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACA</t>
     </r>
     <r>
       <rPr>
@@ -741,33 +725,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GCAAACCCACCAAGCTTAATA</t>
-    </r>
-  </si>
-  <si>
-    <t>AcCytbF</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Complex Clade </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cob</t>
-    </r>
-  </si>
-  <si>
-    <t>GCCGTCTCCTTCAAATATAAG</t>
-  </si>
-  <si>
-    <r>
-      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACA</t>
+      <t>GGTTGCTAGTAGTAATTTGGATTG</t>
+    </r>
+  </si>
+  <si>
+    <t>MCytbR</t>
+  </si>
+  <si>
+    <t>CAAACCCACCAAGCTTAATA</t>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACA</t>
     </r>
     <r>
       <rPr>
@@ -777,53 +746,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GGCCGTCTCCTTCAAATATAAG</t>
-    </r>
-  </si>
-  <si>
-    <t>~776 bp</t>
-  </si>
-  <si>
-    <t>AcCytbR</t>
-  </si>
-  <si>
-    <t>AAAAGGCTCTTCTACAAC</t>
-  </si>
-  <si>
-    <r>
-      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACA</t>
-    </r>
-    <r>
-      <rPr>
+      <t>GCAAACCCACCAAGCTTAATA</t>
+    </r>
+  </si>
+  <si>
+    <t>AcCytbF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Complex Clade </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GAAAAGGCTCTTCTACAAC</t>
-    </r>
-  </si>
-  <si>
-    <t>SeaCytbF</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sea Anemone </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>cob</t>
     </r>
   </si>
   <si>
-    <t>GTGGAACTTCGGTTCTTTATT</t>
+    <t>GCCGTCTCCTTCAAATATAAG</t>
   </si>
   <si>
     <r>
@@ -837,14 +783,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GGTGGAACTTCGGTTCTTTATT</t>
-    </r>
-  </si>
-  <si>
-    <t>SeaCytbR</t>
-  </si>
-  <si>
-    <t>ATACAGAGGCTAATTGTCC</t>
+      <t>GGCCGTCTCCTTCAAATATAAG</t>
+    </r>
+  </si>
+  <si>
+    <t>~776 bp</t>
+  </si>
+  <si>
+    <t>AcCytbR</t>
+  </si>
+  <si>
+    <t>AAAAGGCTCTTCTACAAC</t>
   </si>
   <si>
     <r>
@@ -858,215 +807,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GATACAGAGGCTAATTGTCC</t>
-    </r>
-  </si>
-  <si>
-    <t>TubulinF</t>
-  </si>
-  <si>
-    <t>OFav beta tubulin</t>
-  </si>
-  <si>
-    <t>GCATGGGAACGCTCCTTATTT</t>
-  </si>
-  <si>
-    <r>
-      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACA</t>
-    </r>
-    <r>
-      <rPr>
+      <t>GAAAAGGCTCTTCTACAAC</t>
+    </r>
+  </si>
+  <si>
+    <t>SeaCytbF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sea Anemone </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GGCATGGGAACGCTCCTTATTT</t>
-    </r>
-  </si>
-  <si>
-    <t>} ~ 443 bp</t>
-  </si>
-  <si>
-    <t>TubulinR</t>
-  </si>
-  <si>
-    <t>ACATCTGTTGAGTGAGTTCTG</t>
-  </si>
-  <si>
-    <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGACATCTGTTGAGTGAGTTCTG</t>
-  </si>
-  <si>
-    <t>1S</t>
-  </si>
-  <si>
-    <t>Odorico 1997: 10.1093/oxfordjournals.molbev.a025783</t>
-  </si>
-  <si>
-    <t>Anthozoan SSU</t>
-  </si>
-  <si>
-    <t>GGTACCCTTTGTACACACCGCCCGTCGCT</t>
-  </si>
-  <si>
-    <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAGGGTACCCTTTGTACACACCGCCCGTCGCT</t>
-  </si>
-  <si>
-    <t>} ~820 bp region including both ITS</t>
-  </si>
-  <si>
-    <t>2SS</t>
-  </si>
-  <si>
-    <t>Anthozoan LSU</t>
-  </si>
-  <si>
-    <t>GCTTTGGGCGGCAGTCCCAAGCAACCCGACTC</t>
-  </si>
-  <si>
-    <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGGCTTTGGGCGGCAGTCCCAAGCAACCCGACTC</t>
-  </si>
-  <si>
-    <t>515fB</t>
-  </si>
-  <si>
-    <t>Prokaryotic 16S</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>GTGYCAGCMGCCGCGGTAA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TCGTCGGCAGCGTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>AGATGTGTATAAGAGACAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>GTGTGYCAGCMGCCGCGGTAA</t>
-    </r>
-  </si>
-  <si>
-    <t>806rB</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>GGACTACNVGGGTWTCTAAT</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>GTCTCGTGGGCTCGG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>AGATGTGTATAAGAGACAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>CCGGACTACNVGGGTWTCTAAT</t>
-    </r>
-  </si>
-  <si>
-    <t>926r</t>
-  </si>
-  <si>
-    <t>GG</t>
-  </si>
-  <si>
-    <t>CCGYCAATTYMTTTRAGTTT</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>GTCTCGTGGGCTCGG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>AGATGTGTATAAGAGACAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>GGCCGYCAATTYMTTTRAGTTT</t>
-    </r>
-  </si>
-  <si>
-    <t>25nm</t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t>2nd step:</t>
-  </si>
-  <si>
-    <t>Illumina adaptor</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>MAf</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACAC</t>
-  </si>
-  <si>
-    <t>xxxxxxxx</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="7"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>AATGATACGGCGACCACCGAGATCTACAC</t>
+      <t>cob</t>
+    </r>
+  </si>
+  <si>
+    <t>GTGGAACTTCGGTTCTTTATT</t>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACA</t>
     </r>
     <r>
       <rPr>
@@ -1076,31 +844,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>xxxxxxxx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TCGTCGGCAGCGTC</t>
-    </r>
-  </si>
-  <si>
-    <t>MAr</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGAT</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="7"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>CAAGCAGAAGACGGCATACGAGAT</t>
+      <t>GGTGGAACTTCGGTTCTTTATT</t>
+    </r>
+  </si>
+  <si>
+    <t>SeaCytbR</t>
+  </si>
+  <si>
+    <t>ATACAGAGGCTAATTGTCC</t>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACA</t>
     </r>
     <r>
       <rPr>
@@ -1110,6 +865,224 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>GATACAGAGGCTAATTGTCC</t>
+    </r>
+  </si>
+  <si>
+    <t>TubulinF</t>
+  </si>
+  <si>
+    <t>OFav beta tubulin</t>
+  </si>
+  <si>
+    <t>GCATGGGAACGCTCCTTATTT</t>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GGCATGGGAACGCTCCTTATTT</t>
+    </r>
+  </si>
+  <si>
+    <t>} ~ 443 bp</t>
+  </si>
+  <si>
+    <t>TubulinR</t>
+  </si>
+  <si>
+    <t>ACATCTGTTGAGTGAGTTCTG</t>
+  </si>
+  <si>
+    <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGACATCTGTTGAGTGAGTTCTG</t>
+  </si>
+  <si>
+    <t>1S</t>
+  </si>
+  <si>
+    <t>Odorico 1997: 10.1093/oxfordjournals.molbev.a025783</t>
+  </si>
+  <si>
+    <t>Anthozoan SSU</t>
+  </si>
+  <si>
+    <t>GGTACCCTTTGTACACACCGCCCGTCGCT</t>
+  </si>
+  <si>
+    <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAGGGTACCCTTTGTACACACCGCCCGTCGCT</t>
+  </si>
+  <si>
+    <t>} ~820 bp region including both ITS</t>
+  </si>
+  <si>
+    <t>2SS</t>
+  </si>
+  <si>
+    <t>Anthozoan LSU</t>
+  </si>
+  <si>
+    <t>GCTTTGGGCGGCAGTCCCAAGCAACCCGACTC</t>
+  </si>
+  <si>
+    <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGGCTTTGGGCGGCAGTCCCAAGCAACCCGACTC</t>
+  </si>
+  <si>
+    <t>515fB</t>
+  </si>
+  <si>
+    <t>Prokaryotic 16S</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>GTGYCAGCMGCCGCGGTAA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TCGTCGGCAGCGTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GTGTGYCAGCMGCCGCGGTAA</t>
+    </r>
+  </si>
+  <si>
+    <t>806rB</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>GGACTACNVGGGTWTCTAAT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GTCTCGTGGGCTCGG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CCGGACTACNVGGGTWTCTAAT</t>
+    </r>
+  </si>
+  <si>
+    <t>926r</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>CCGYCAATTYMTTTRAGTTT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GTCTCGTGGGCTCGG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GGCCGYCAATTYMTTTRAGTTT</t>
+    </r>
+  </si>
+  <si>
+    <t>25nm</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>2nd step:</t>
+  </si>
+  <si>
+    <t>Illumina adaptor</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>MAf</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACAC</t>
+  </si>
+  <si>
+    <t>xxxxxxxx</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AATGATACGGCGACCACCGAGATCTACAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>xxxxxxxx</t>
     </r>
     <r>
@@ -1118,6 +1091,40 @@
         <color theme="5"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
+      <t>TCGTCGGCAGCGTC</t>
+    </r>
+  </si>
+  <si>
+    <t>MAr</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGAT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CAAGCAGAAGACGGCATACGAGAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xxxxxxxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
       <t>GTCTCGTGGGCTCGG</t>
     </r>
   </si>
@@ -1326,9 +1333,6 @@
     <t>White 1990</t>
   </si>
   <si>
-    <t>fungal ('AMF') ITS2</t>
-  </si>
-  <si>
     <r>
       <t>TCGTCGGCAGCGTC</t>
     </r>
@@ -1369,6 +1373,81 @@
       </rPr>
       <t>GTGARTCATCGAATCTTTG</t>
     </r>
+  </si>
+  <si>
+    <t>Shiu 2018: 10.1264/jsme2.ME18054</t>
+  </si>
+  <si>
+    <t>Endozoicomonas 16S</t>
+  </si>
+  <si>
+    <t>En771R</t>
+  </si>
+  <si>
+    <t>TCAGTGTCARRCCTGAGTGT</t>
+  </si>
+  <si>
+    <t>27F</t>
+  </si>
+  <si>
+    <t>(Shiu 2018: 10.1264/jsme2.ME18054)</t>
+  </si>
+  <si>
+    <t>Bacterial 16S</t>
+  </si>
+  <si>
+    <t>AGAGTTTGATCMTGGCTCAG</t>
+  </si>
+  <si>
+    <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGTCAGTGTCARRCCTGAGTGT</t>
+  </si>
+  <si>
+    <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAGAGAGTTTGATCMTGGCTCAG</t>
+  </si>
+  <si>
+    <t>ITS2r</t>
+  </si>
+  <si>
+    <t>ITS3tagmix</t>
+  </si>
+  <si>
+    <t>gITS7</t>
+  </si>
+  <si>
+    <t>ITS4NGS</t>
+  </si>
+  <si>
+    <t>GTGARTCATCGARTCTTTG</t>
+  </si>
+  <si>
+    <t>GCTGCGTTCTTCATCGATGC</t>
+  </si>
+  <si>
+    <t>CTAGACTCGTCANCGATGAAGAACGYRG</t>
+  </si>
+  <si>
+    <t>fungal (+ coral?) 5.8S (ITS1)</t>
+  </si>
+  <si>
+    <t>TTCCTSCGCTTATTGATATGC</t>
+  </si>
+  <si>
+    <t>FungiQuant-F</t>
+  </si>
+  <si>
+    <t>fungal (+ coral?) SSU</t>
+  </si>
+  <si>
+    <t>FungiQuant-R </t>
+  </si>
+  <si>
+    <t>GGRAAACTCACCAGGTCCAG</t>
+  </si>
+  <si>
+    <t>GSWCTATCCCCAKCACGA</t>
+  </si>
+  <si>
+    <t>(Frau et al 2019: https://doi.org/10.1038/s41598-019-44974-x)</t>
   </si>
 </sst>
 </file>
@@ -1448,6 +1527,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1487,7 +1567,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1638,11 +1718,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1651,14 +1729,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color auto="1"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
         <color auto="1"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1696,52 +1803,43 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1751,6 +1849,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2062,21 +2171,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="75.83203125" customWidth="1"/>
+    <col min="8" max="8" width="76.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2088,7 +2197,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2111,683 +2220,633 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="26" t="s">
+      <c r="A3" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>13</v>
-      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="6"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="6"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>20</v>
+      <c r="F7" s="40"/>
+      <c r="G7" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="6"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>23</v>
+      <c r="F9" s="40"/>
+      <c r="G9" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>28</v>
+      <c r="F11" s="40"/>
+      <c r="G11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>31</v>
+      <c r="F13" s="40"/>
+      <c r="G13" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="6"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>35</v>
+      <c r="F15" s="40"/>
+      <c r="G15" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="44"/>
+      <c r="C16" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B23" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C23" s="42"/>
+      <c r="D23" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="10" t="s">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E25" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H17" s="10" t="s">
+      <c r="F25" s="40"/>
+      <c r="G25" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" s="49" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="10" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="40"/>
+      <c r="G29" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="40"/>
+      <c r="G31" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E33" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="28" t="s">
+      <c r="F33" s="20"/>
+      <c r="G33" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="H33" s="21" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="I31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="I33" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="41" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="I34" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H35" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" t="s">
-        <v>59</v>
+      <c r="F35" s="40"/>
+      <c r="G35" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="41" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="16" t="s">
+      <c r="A37" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H37" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="I37" t="s">
-        <v>59</v>
+      <c r="F37" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="41" t="s">
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="I38" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="I39" t="s">
-        <v>59</v>
+      <c r="F39" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="41" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I40" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="16" t="s">
+      <c r="A41" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H41" s="41" t="s">
-        <v>78</v>
+      <c r="F41" s="20"/>
+      <c r="G41" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="I41" t="s">
         <v>59</v>
@@ -2795,13 +2854,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="41" t="s">
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="5" t="s">
         <v>40</v>
       </c>
       <c r="I42" t="s">
@@ -2810,26 +2869,26 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" s="41" t="s">
-        <v>83</v>
+      <c r="F43" s="40"/>
+      <c r="G43" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="I43" t="s">
         <v>59</v>
@@ -2837,39 +2896,41 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="41"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="I44" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H45" s="41" t="s">
-        <v>86</v>
+      <c r="F45" s="40"/>
+      <c r="G45" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="I45" t="s">
         <v>59</v>
@@ -2877,39 +2938,41 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="41"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="I46" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H47" s="41" t="s">
-        <v>91</v>
+      <c r="F47" s="40"/>
+      <c r="G47" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="I47" t="s">
         <v>59</v>
@@ -2917,41 +2980,41 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="41" t="s">
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="5" t="s">
         <v>40</v>
       </c>
       <c r="I48" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H49" s="41" t="s">
-        <v>94</v>
+      <c r="F49" s="40"/>
+      <c r="G49" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="I49" t="s">
         <v>59</v>
@@ -2959,13 +3022,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="41" t="s">
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="5" t="s">
         <v>40</v>
       </c>
       <c r="I50" t="s">
@@ -2974,26 +3037,26 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="16" t="s">
+      <c r="C51" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H51" s="41" t="s">
-        <v>98</v>
+      <c r="F51" s="40"/>
+      <c r="G51" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="I51" t="s">
         <v>59</v>
@@ -3001,41 +3064,41 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="41" t="s">
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="5" t="s">
         <v>40</v>
       </c>
       <c r="I52" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H53" s="41" t="s">
-        <v>102</v>
+      <c r="F53" s="40"/>
+      <c r="G53" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="I53" t="s">
         <v>59</v>
@@ -3043,41 +3106,39 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="41" t="s">
-        <v>40</v>
-      </c>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="5"/>
       <c r="I54" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H55" s="41" t="s">
-        <v>106</v>
+      <c r="F55" s="40"/>
+      <c r="G55" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="I55" t="s">
         <v>59</v>
@@ -3085,41 +3146,39 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="41" t="s">
-        <v>40</v>
-      </c>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="5"/>
       <c r="I56" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H57" s="41" t="s">
-        <v>109</v>
+      <c r="F57" s="40"/>
+      <c r="G57" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="I57" t="s">
         <v>59</v>
@@ -3127,287 +3186,534 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="41" t="s">
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="5" t="s">
         <v>40</v>
+      </c>
+      <c r="I58" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="16" t="s">
+      <c r="C59" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H59" s="41" t="s">
-        <v>113</v>
+      <c r="F59" s="40"/>
+      <c r="G59" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="19" t="s">
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="5" t="s">
         <v>40</v>
       </c>
       <c r="I60" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="5"/>
-      <c r="G61" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>117</v>
+      <c r="F61" s="40"/>
+      <c r="G61" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I61" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="19" t="s">
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="5" t="s">
         <v>40</v>
+      </c>
+      <c r="I62" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H63" s="19" t="s">
-        <v>122</v>
+      <c r="F63" s="40"/>
+      <c r="G63" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I63" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="19" t="s">
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="5" t="s">
         <v>40</v>
       </c>
       <c r="I64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="40"/>
+      <c r="G65" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="4"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="40"/>
+      <c r="G67" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="40"/>
+      <c r="G69" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="40"/>
+      <c r="G71" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="40"/>
+      <c r="G73" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B75" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C75" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D75" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E75" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="12" t="s">
+      <c r="F75" s="40"/>
+      <c r="G75" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="H65" s="19" t="s">
+      <c r="H75" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="19"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="4"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10" t="s">
+    <row r="76" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="32"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="35"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E77" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="19"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="s">
+      <c r="F77" s="40"/>
+      <c r="G77" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="4"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B79" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="40"/>
+      <c r="G79" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="4"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="30" t="s">
+      <c r="B81" s="22"/>
+      <c r="C81" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D81" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="27" t="s">
+      <c r="E81" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="28" t="s">
+      <c r="F81" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="G69" s="28" t="s">
+      <c r="G81" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="H69" s="29" t="s">
+      <c r="H81" s="25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="4"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="38" t="s">
+      <c r="B83" s="41"/>
+      <c r="C83" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D83" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E83" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F83" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="G71" s="12" t="s">
+      <c r="G83" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="H71" s="19" t="s">
+      <c r="H83" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="6"/>
-    </row>
-    <row r="73" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="4"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="43" t="s">
+      <c r="B85" s="10"/>
+      <c r="C85" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D85" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E85" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F85" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G73" s="13" t="s">
+      <c r="G85" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H73" s="22" t="s">
+      <c r="H85" s="18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G74" t="str">
-        <f>CONCATENATE(B74,C74,D74,E74)</f>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G86" t="str">
+        <f>CONCATENATE(B86,C86,D86,E86)</f>
         <v/>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -3421,7 +3727,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3434,11 +3740,11 @@
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="str">
+      <c r="B1" t="str">
         <f>CONCATENATE(A1,"-MAf")</f>
         <v>ITS1F_KYO1-MAf</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
@@ -3452,11 +3758,11 @@
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="str">
+      <c r="B2" t="str">
         <f t="shared" ref="B2:B11" si="0">CONCATENATE(A2,"-MAf")</f>
         <v>ITS1-MAf</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>20</v>
       </c>
       <c r="I2" t="s">
@@ -3470,11 +3776,11 @@
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" t="str">
         <f t="shared" si="0"/>
         <v>BITS-MAf</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I3" t="s">
@@ -3485,14 +3791,14 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>MCOIF -MAf</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="21" t="s">
         <v>58</v>
       </c>
       <c r="I4" t="s">
@@ -3506,11 +3812,11 @@
       <c r="A5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>AcMCOIF-MAf</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="5" t="s">
         <v>67</v>
       </c>
       <c r="I5" t="s">
@@ -3524,11 +3830,11 @@
       <c r="A6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="5" t="str">
+      <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>SeaMCOIF-MAf</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="5" t="s">
         <v>75</v>
       </c>
       <c r="I6" t="s">
@@ -3542,11 +3848,11 @@
       <c r="A7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>MCytbF-MAf</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="5" t="s">
         <v>91</v>
       </c>
       <c r="I7" t="s">
@@ -3560,11 +3866,11 @@
       <c r="A8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="5" t="str">
+      <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>AcCytbF-MAf</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="5" t="s">
         <v>98</v>
       </c>
       <c r="I8" t="s">
@@ -3578,11 +3884,11 @@
       <c r="A9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="5" t="str">
+      <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>SeaCytbF-MAf</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="5" t="s">
         <v>106</v>
       </c>
       <c r="I9" t="s">
@@ -3596,11 +3902,11 @@
       <c r="A10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>TubulinF-MAf</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="5" t="s">
         <v>113</v>
       </c>
       <c r="I10" t="s">
@@ -3614,11 +3920,11 @@
       <c r="A11" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="5" t="str">
+      <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>1S-MAf</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="16" t="s">
         <v>122</v>
       </c>
       <c r="I11" t="s">
@@ -3632,11 +3938,11 @@
       <c r="A12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="5" t="str">
+      <c r="B12" t="str">
         <f>CONCATENATE(A12,"-MAr")</f>
         <v>2SS-MAr</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="16" t="s">
         <v>127</v>
       </c>
       <c r="I12" t="s">
@@ -3650,11 +3956,11 @@
       <c r="A13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="5" t="str">
+      <c r="B13" t="str">
         <f t="shared" ref="B13:B21" si="1">CONCATENATE(A13,"-MAr")</f>
         <v>TubulinR-MAr</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="16" t="s">
         <v>117</v>
       </c>
       <c r="I13" t="s">
@@ -3668,11 +3974,11 @@
       <c r="A14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="5" t="str">
+      <c r="B14" t="str">
         <f t="shared" si="1"/>
         <v>SeaCytbR-MAr</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="5" t="s">
         <v>109</v>
       </c>
       <c r="I14" t="s">
@@ -3686,11 +3992,11 @@
       <c r="A15" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="5" t="str">
+      <c r="B15" t="str">
         <f t="shared" si="1"/>
         <v>AcCytbR-MAr</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="5" t="s">
         <v>102</v>
       </c>
       <c r="I15" t="s">
@@ -3704,11 +4010,11 @@
       <c r="A16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="5" t="str">
+      <c r="B16" t="str">
         <f t="shared" si="1"/>
         <v>MCytbR-MAr</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="5" t="s">
         <v>94</v>
       </c>
       <c r="I16" t="s">
@@ -3722,11 +4028,11 @@
       <c r="A17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="5" t="str">
+      <c r="B17" t="str">
         <f t="shared" si="1"/>
         <v>SeaMCOIR-MAr</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="5" t="s">
         <v>78</v>
       </c>
       <c r="I17" t="s">
@@ -3740,11 +4046,11 @@
       <c r="A18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="5" t="str">
+      <c r="B18" t="str">
         <f t="shared" si="1"/>
         <v>AcMCOIR-MAr</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="5" t="s">
         <v>70</v>
       </c>
       <c r="I18" t="s">
@@ -3758,11 +4064,11 @@
       <c r="A19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="5" t="str">
+      <c r="B19" t="str">
         <f t="shared" si="1"/>
         <v>MCOIR-MAr</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="5" t="s">
         <v>62</v>
       </c>
       <c r="I19" t="s">
@@ -3776,11 +4082,11 @@
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="5" t="str">
+      <c r="B20" t="str">
         <f t="shared" si="1"/>
         <v>B58S3-MAr</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I20" t="s">
@@ -3794,11 +4100,11 @@
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="5" t="str">
+      <c r="B21" t="str">
         <f t="shared" si="1"/>
         <v>NLB4-MAr</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="16" t="s">
         <v>35</v>
       </c>
       <c r="I21" t="s">
@@ -3817,8 +4123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3844,16 +4150,16 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3861,130 +4167,87 @@
       <c r="A4" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -4004,14 +4267,14 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -4031,14 +4294,14 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/wetlab_protocols/amplicon_SOPs/primer_designs/2-step_primer_designs.xlsx
+++ b/wetlab_protocols/amplicon_SOPs/primer_designs/2-step_primer_designs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ryan/scripts/analysis_templates/wetlab_protocols/amplicon_SOPs/primer_designs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9817271-FCCD-2243-AE2F-397B21899CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA076F2-854A-6340-B290-7873B0E40929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="211">
   <si>
     <t>#The data from these primers will include the linker and primer sequences, which will need to be trimmed before analysis</t>
   </si>
@@ -1448,6 +1448,135 @@
   </si>
   <si>
     <t>(Frau et al 2019: https://doi.org/10.1038/s41598-019-44974-x)</t>
+  </si>
+  <si>
+    <t>Liu et al 2012: 10.1186/1471-2180-12-255</t>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GGRAAACTCACCAGGTCCAG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GSWCTATCCCCAKCACGA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GCTGCGTTCTTCATCGATGC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CTAGACTCGTCANCGATGAAGAACGYRG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GTGARTCATCGARTCTTTG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TTCCTSCGCTTATTGATATGC</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1803,7 +1932,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1860,6 +1989,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2174,7 +2304,7 @@
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2224,7 +2354,7 @@
         <v>198</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="22" t="s">
@@ -2237,7 +2367,9 @@
       <c r="G3" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="50" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
@@ -2256,7 +2388,7 @@
         <v>200</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="41" t="s">
@@ -2269,7 +2401,9 @@
       <c r="G5" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="49" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
@@ -2453,7 +2587,9 @@
       <c r="G17" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="49" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
@@ -2483,7 +2619,9 @@
       <c r="G19" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="49" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
@@ -2513,7 +2651,9 @@
       <c r="G21" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="49" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
@@ -2643,7 +2783,9 @@
       <c r="G29" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="H29" s="16"/>
+      <c r="H29" s="49" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>

--- a/wetlab_protocols/amplicon_SOPs/primer_designs/2-step_primer_designs.xlsx
+++ b/wetlab_protocols/amplicon_SOPs/primer_designs/2-step_primer_designs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ryan/scripts/analysis_templates/wetlab_protocols/amplicon_SOPs/primer_designs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA076F2-854A-6340-B290-7873B0E40929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01396A9B-0A9C-E04C-87D5-E7D03123A0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1st Step" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="244">
   <si>
     <t>#The data from these primers will include the linker and primer sequences, which will need to be trimmed before analysis</t>
   </si>
@@ -378,9 +378,6 @@
     <t>ITS2-rev2-reverse</t>
   </si>
   <si>
-    <t>Symbiodinium (+ other apicomplexans) LSU (ITS2)</t>
-  </si>
-  <si>
     <t>CCTCCGCTTACTTATATGCTT</t>
   </si>
   <si>
@@ -410,49 +407,48 @@
     <t>1391F</t>
   </si>
   <si>
-    <t>Eukaryotic 18S</t>
-  </si>
-  <si>
     <t>CG</t>
   </si>
   <si>
     <t>GTACACACCGCCCGTC</t>
   </si>
   <si>
-    <r>
-      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACA</t>
-    </r>
-    <r>
-      <rPr>
+    <t>EukBr</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>TGATCCTTCTGCAGGTTCACCTAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCOIF </t>
+  </si>
+  <si>
+    <t>Fukami 2004: 10.1038/nature02339</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Robust Clade </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>CGGTACACACCGCCCGTC</t>
-    </r>
-  </si>
-  <si>
-    <t>EukBr</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>TGATCCTTCTGCAGGTTCACCTAC</t>
-  </si>
-  <si>
-    <r>
-      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACA</t>
+      <t>cox1</t>
+    </r>
+  </si>
+  <si>
+    <t>TCTACAAATCATAAAGACATAGG</t>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACA</t>
     </r>
     <r>
       <rPr>
@@ -462,61 +458,61 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GCATGATCCTTCTGCAGGTTCACCTAC</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">MCOIF </t>
-  </si>
-  <si>
-    <t>Fukami 2004: 10.1038/nature02339</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Robust Clade </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t>GTCTACAAATCATAAAGACATAGG</t>
+    </r>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>MCOIR</t>
+  </si>
+  <si>
+    <t>GAGAAATTATACCAAAACCAGG</t>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACA</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>cox1</t>
-    </r>
-  </si>
-  <si>
-    <t>TCTACAAATCATAAAGACATAGG</t>
-  </si>
-  <si>
-    <r>
-      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACA</t>
-    </r>
-    <r>
-      <rPr>
+      <t>GGAGAAATTATACCAAAACCAGG</t>
+    </r>
+  </si>
+  <si>
+    <t>AcMCOIF</t>
+  </si>
+  <si>
+    <t>Fukami 2008: 10.1371/journal.pone.0003222</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Complex Clade </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GTCTACAAATCATAAAGACATAGG</t>
-    </r>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>MCOIR</t>
-  </si>
-  <si>
-    <t>GAGAAATTATACCAAAACCAGG</t>
-  </si>
-  <si>
-    <r>
-      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACA</t>
+      <t>cox1</t>
+    </r>
+  </si>
+  <si>
+    <t>GACATGGCTATTTTTAGCCT</t>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACA</t>
     </r>
     <r>
       <rPr>
@@ -526,58 +522,58 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GGAGAAATTATACCAAAACCAGG</t>
-    </r>
-  </si>
-  <si>
-    <t>AcMCOIF</t>
-  </si>
-  <si>
-    <t>Fukami 2008: 10.1371/journal.pone.0003222</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Complex Clade </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t>GGACATGGCTATTTTTAGCCT</t>
+    </r>
+  </si>
+  <si>
+    <t>AcMCOIR</t>
+  </si>
+  <si>
+    <t>AAGCATAGGAGTGTCGTCTAATC</t>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACA</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>cox1</t>
-    </r>
-  </si>
-  <si>
-    <t>GACATGGCTATTTTTAGCCT</t>
-  </si>
-  <si>
-    <r>
-      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACA</t>
-    </r>
-    <r>
-      <rPr>
+      <t>GAAGCATAGGAGTGTCGTCTAATC</t>
+    </r>
+  </si>
+  <si>
+    <t>~607 bp</t>
+  </si>
+  <si>
+    <t>SeaMCOIF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sea Anemone </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GGACATGGCTATTTTTAGCCT</t>
-    </r>
-  </si>
-  <si>
-    <t>AcMCOIR</t>
-  </si>
-  <si>
-    <t>AAGCATAGGAGTGTCGTCTAATC</t>
-  </si>
-  <si>
-    <r>
-      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACA</t>
+      <t>cox1</t>
+    </r>
+  </si>
+  <si>
+    <t>CTACTAATCATAAAGATATCGG</t>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACA</t>
     </r>
     <r>
       <rPr>
@@ -587,156 +583,144 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GAAGCATAGGAGTGTCGTCTAATC</t>
-    </r>
-  </si>
-  <si>
-    <t>~607 bp</t>
-  </si>
-  <si>
-    <t>SeaMCOIF</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sea Anemone </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t>GCTACTAATCATAAAGATATCGG</t>
+    </r>
+  </si>
+  <si>
+    <t>SeaMCOIR</t>
+  </si>
+  <si>
+    <t>CAAAGTCAGAGTATCGTCTTGG</t>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACA</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>cox1</t>
-    </r>
-  </si>
-  <si>
-    <t>CTACTAATCATAAAGATATCGG</t>
-  </si>
-  <si>
-    <r>
-      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACA</t>
-    </r>
-    <r>
-      <rPr>
+      <t>GCAAAGTCAGAGTATCGTCTTGG</t>
+    </r>
+  </si>
+  <si>
+    <t>RMCOIF</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cnidarian </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GCTACTAATCATAAAGATATCGG</t>
-    </r>
-  </si>
-  <si>
-    <t>SeaMCOIR</t>
-  </si>
-  <si>
-    <t>CAAAGTCAGAGTATCGTCTTGG</t>
-  </si>
-  <si>
-    <r>
-      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACA</t>
-    </r>
-    <r>
-      <rPr>
+      <t>cox1</t>
+    </r>
+  </si>
+  <si>
+    <t>TCNACHAAYCAYAAAGAYATHGG</t>
+  </si>
+  <si>
+    <t>RMCOIR</t>
+  </si>
+  <si>
+    <t>GAGADATBATNCCAAAVCCAGG</t>
+  </si>
+  <si>
+    <t>MCytbF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Robust Clade </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GCAAAGTCAGAGTATCGTCTTGG</t>
-    </r>
-  </si>
-  <si>
-    <t>RMCOIF</t>
-  </si>
-  <si>
-    <t>me</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">cnidarian </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t>cob</t>
+    </r>
+  </si>
+  <si>
+    <t>GTTGCTAGTAGTAATTTGGATTG</t>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACA</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>cox1</t>
-    </r>
-  </si>
-  <si>
-    <t>TCNACHAAYCAYAAAGAYATHGG</t>
-  </si>
-  <si>
-    <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAGTCNACHAAYCAYAAAGAYATHGG</t>
-  </si>
-  <si>
-    <t>RMCOIR</t>
-  </si>
-  <si>
-    <t>GAGADATBATNCCAAAVCCAGG</t>
-  </si>
-  <si>
-    <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGGAGADATBATNCCAAAVCCAGG</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>MCytbF</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Robust Clade </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t>GGTTGCTAGTAGTAATTTGGATTG</t>
+    </r>
+  </si>
+  <si>
+    <t>MCytbR</t>
+  </si>
+  <si>
+    <t>CAAACCCACCAAGCTTAATA</t>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACA</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>cob</t>
-    </r>
-  </si>
-  <si>
-    <t>GTTGCTAGTAGTAATTTGGATTG</t>
-  </si>
-  <si>
-    <r>
-      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACA</t>
-    </r>
-    <r>
-      <rPr>
+      <t>GCAAACCCACCAAGCTTAATA</t>
+    </r>
+  </si>
+  <si>
+    <t>AcCytbF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Complex Clade </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GGTTGCTAGTAGTAATTTGGATTG</t>
-    </r>
-  </si>
-  <si>
-    <t>MCytbR</t>
-  </si>
-  <si>
-    <t>CAAACCCACCAAGCTTAATA</t>
-  </si>
-  <si>
-    <r>
-      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACA</t>
+      <t>cob</t>
+    </r>
+  </si>
+  <si>
+    <t>GCCGTCTCCTTCAAATATAAG</t>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACA</t>
     </r>
     <r>
       <rPr>
@@ -746,58 +730,58 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GCAAACCCACCAAGCTTAATA</t>
-    </r>
-  </si>
-  <si>
-    <t>AcCytbF</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Complex Clade </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t>GGCCGTCTCCTTCAAATATAAG</t>
+    </r>
+  </si>
+  <si>
+    <t>~776 bp</t>
+  </si>
+  <si>
+    <t>AcCytbR</t>
+  </si>
+  <si>
+    <t>AAAAGGCTCTTCTACAAC</t>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACA</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>cob</t>
-    </r>
-  </si>
-  <si>
-    <t>GCCGTCTCCTTCAAATATAAG</t>
-  </si>
-  <si>
-    <r>
-      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACA</t>
-    </r>
-    <r>
-      <rPr>
+      <t>GAAAAGGCTCTTCTACAAC</t>
+    </r>
+  </si>
+  <si>
+    <t>SeaCytbF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sea Anemone </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GGCCGTCTCCTTCAAATATAAG</t>
-    </r>
-  </si>
-  <si>
-    <t>~776 bp</t>
-  </si>
-  <si>
-    <t>AcCytbR</t>
-  </si>
-  <si>
-    <t>AAAAGGCTCTTCTACAAC</t>
-  </si>
-  <si>
-    <r>
-      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACA</t>
+      <t>cob</t>
+    </r>
+  </si>
+  <si>
+    <t>GTGGAACTTCGGTTCTTTATT</t>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACA</t>
     </r>
     <r>
       <rPr>
@@ -807,30 +791,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GAAAAGGCTCTTCTACAAC</t>
-    </r>
-  </si>
-  <si>
-    <t>SeaCytbF</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sea Anemone </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t>GGTGGAACTTCGGTTCTTTATT</t>
+    </r>
+  </si>
+  <si>
+    <t>SeaCytbR</t>
+  </si>
+  <si>
+    <t>ATACAGAGGCTAATTGTCC</t>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACA</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>cob</t>
-    </r>
-  </si>
-  <si>
-    <t>GTGGAACTTCGGTTCTTTATT</t>
+      <t>GATACAGAGGCTAATTGTCC</t>
+    </r>
+  </si>
+  <si>
+    <t>TubulinF</t>
+  </si>
+  <si>
+    <t>OFav beta tubulin</t>
+  </si>
+  <si>
+    <t>GCATGGGAACGCTCCTTATTT</t>
   </si>
   <si>
     <r>
@@ -844,18 +836,188 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GGTGGAACTTCGGTTCTTTATT</t>
-    </r>
-  </si>
-  <si>
-    <t>SeaCytbR</t>
-  </si>
-  <si>
-    <t>ATACAGAGGCTAATTGTCC</t>
-  </si>
-  <si>
-    <r>
-      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACA</t>
+      <t>GGCATGGGAACGCTCCTTATTT</t>
+    </r>
+  </si>
+  <si>
+    <t>} ~ 443 bp</t>
+  </si>
+  <si>
+    <t>TubulinR</t>
+  </si>
+  <si>
+    <t>ACATCTGTTGAGTGAGTTCTG</t>
+  </si>
+  <si>
+    <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGACATCTGTTGAGTGAGTTCTG</t>
+  </si>
+  <si>
+    <t>1S</t>
+  </si>
+  <si>
+    <t>Odorico 1997: 10.1093/oxfordjournals.molbev.a025783</t>
+  </si>
+  <si>
+    <t>Anthozoan SSU</t>
+  </si>
+  <si>
+    <t>GGTACCCTTTGTACACACCGCCCGTCGCT</t>
+  </si>
+  <si>
+    <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAGGGTACCCTTTGTACACACCGCCCGTCGCT</t>
+  </si>
+  <si>
+    <t>} ~820 bp region including both ITS</t>
+  </si>
+  <si>
+    <t>2SS</t>
+  </si>
+  <si>
+    <t>Anthozoan LSU</t>
+  </si>
+  <si>
+    <t>GCTTTGGGCGGCAGTCCCAAGCAACCCGACTC</t>
+  </si>
+  <si>
+    <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGGCTTTGGGCGGCAGTCCCAAGCAACCCGACTC</t>
+  </si>
+  <si>
+    <t>515fB</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>GTGYCAGCMGCCGCGGTAA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TCGTCGGCAGCGTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GTGTGYCAGCMGCCGCGGTAA</t>
+    </r>
+  </si>
+  <si>
+    <t>806rB</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>GGACTACNVGGGTWTCTAAT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GTCTCGTGGGCTCGG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CCGGACTACNVGGGTWTCTAAT</t>
+    </r>
+  </si>
+  <si>
+    <t>926r</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>CCGYCAATTYMTTTRAGTTT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GTCTCGTGGGCTCGG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GGCCGYCAATTYMTTTRAGTTT</t>
+    </r>
+  </si>
+  <si>
+    <t>25nm</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>2nd step:</t>
+  </si>
+  <si>
+    <t>Illumina adaptor</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>MAf</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACAC</t>
+  </si>
+  <si>
+    <t>xxxxxxxx</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AATGATACGGCGACCACCGAGATCTACAC</t>
     </r>
     <r>
       <rPr>
@@ -865,21 +1027,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GATACAGAGGCTAATTGTCC</t>
-    </r>
-  </si>
-  <si>
-    <t>TubulinF</t>
-  </si>
-  <si>
-    <t>OFav beta tubulin</t>
-  </si>
-  <si>
-    <t>GCATGGGAACGCTCCTTATTT</t>
-  </si>
-  <si>
-    <r>
-      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACA</t>
+      <t>xxxxxxxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TCGTCGGCAGCGTC</t>
+    </r>
+  </si>
+  <si>
+    <t>MAr</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGAT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CAAGCAGAAGACGGCATACGAGAT</t>
     </r>
     <r>
       <rPr>
@@ -889,70 +1061,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GGCATGGGAACGCTCCTTATTT</t>
-    </r>
-  </si>
-  <si>
-    <t>} ~ 443 bp</t>
-  </si>
-  <si>
-    <t>TubulinR</t>
-  </si>
-  <si>
-    <t>ACATCTGTTGAGTGAGTTCTG</t>
-  </si>
-  <si>
-    <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGACATCTGTTGAGTGAGTTCTG</t>
-  </si>
-  <si>
-    <t>1S</t>
-  </si>
-  <si>
-    <t>Odorico 1997: 10.1093/oxfordjournals.molbev.a025783</t>
-  </si>
-  <si>
-    <t>Anthozoan SSU</t>
-  </si>
-  <si>
-    <t>GGTACCCTTTGTACACACCGCCCGTCGCT</t>
-  </si>
-  <si>
-    <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAGGGTACCCTTTGTACACACCGCCCGTCGCT</t>
-  </si>
-  <si>
-    <t>} ~820 bp region including both ITS</t>
-  </si>
-  <si>
-    <t>2SS</t>
-  </si>
-  <si>
-    <t>Anthozoan LSU</t>
-  </si>
-  <si>
-    <t>GCTTTGGGCGGCAGTCCCAAGCAACCCGACTC</t>
-  </si>
-  <si>
-    <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGGCTTTGGGCGGCAGTCCCAAGCAACCCGACTC</t>
-  </si>
-  <si>
-    <t>515fB</t>
-  </si>
-  <si>
-    <t>Prokaryotic 16S</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>GTGYCAGCMGCCGCGGTAA</t>
-  </si>
-  <si>
+      <t>xxxxxxxx</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="5"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
+      <t>GTCTCGTGGGCTCGG</t>
+    </r>
+  </si>
+  <si>
+    <t>sequencing (don't order - standard MiSeq primers included on chip with sequencing kit):</t>
+  </si>
+  <si>
+    <t>read1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
       <t>TCGTCGGCAGCGTC</t>
     </r>
     <r>
@@ -963,6 +1095,109 @@
       </rPr>
       <t>AGATGTGTATAAGAGACAG</t>
     </r>
+  </si>
+  <si>
+    <t>read2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GTCTCGTGGGCTCGG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
+  </si>
+  <si>
+    <t>index1 (rc of read2)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CTGTCTCTTATACACATCT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CCGAGCCCACGAGAC</t>
+    </r>
+  </si>
+  <si>
+    <t>full amplicon (515-806):</t>
+  </si>
+  <si>
+    <t>total amplicon length: 270 + 179 = 449</t>
+  </si>
+  <si>
+    <t>read length: 270 + 43 = 313</t>
+  </si>
+  <si>
+    <t>overlap (MiSeq 300 bp): 287</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACxxxxxxxxTCGTCGGCAGCGTCAGATGTGTATAAGAGACAGGTGTGYCAGCMGCCGCGGTAA...(270 bases)...ATTAGAWACCCBNGTAGTCCGGCTGTCTCTTATACACATCTCCGAGCCCACGAGACxxxxxxxxATCTCGTATGCCGTCTTCTGCTTG</t>
+  </si>
+  <si>
+    <t>full amplicon (515-926):</t>
+  </si>
+  <si>
+    <t>total amplicon length: 372 + 179 = 551</t>
+  </si>
+  <si>
+    <t>read length: 372 + 43 = 415</t>
+  </si>
+  <si>
+    <t>overlap (MiSeq 300 bp): 185</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AATGATACGGCGACCACCGAGATCTACAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>xxxxxxxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TCGTCGGCAGCGTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -971,23 +1206,213 @@
       </rPr>
       <t>GTGTGYCAGCMGCCGCGGTAA</t>
     </r>
-  </si>
-  <si>
-    <t>806rB</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>GGACTACNVGGGTWTCTAAT</t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>...(372 bases)...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AAACTYAAAKRAATTGRCGGCC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CTGTCTCTTATACACATCT</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="5"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
+      <t>CCGAGCCCACGAGAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>xxxxxxxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ATCTCGTATGCCGTCTTCTGCTTG</t>
+    </r>
+  </si>
+  <si>
+    <t>ITS7o</t>
+  </si>
+  <si>
+    <t>GTGAATCATCRAATYTTTG</t>
+  </si>
+  <si>
+    <t>Kohout et al. 2014 Soil Biology and Biochemistry</t>
+  </si>
+  <si>
+    <t>Ihrmark et al 2013 FEMS Microbial Ecology</t>
+  </si>
+  <si>
+    <t>ITS7</t>
+  </si>
+  <si>
+    <t>GTGARTCATCGAATCTTTG</t>
+  </si>
+  <si>
+    <t>White 1990</t>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GTGAATCATCRAATYTTTG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GTGARTCATCGAATCTTTG</t>
+    </r>
+  </si>
+  <si>
+    <t>Shiu 2018: 10.1264/jsme2.ME18054</t>
+  </si>
+  <si>
+    <t>Endozoicomonas 16S</t>
+  </si>
+  <si>
+    <t>En771R</t>
+  </si>
+  <si>
+    <t>TCAGTGTCARRCCTGAGTGT</t>
+  </si>
+  <si>
+    <t>27F</t>
+  </si>
+  <si>
+    <t>(Shiu 2018: 10.1264/jsme2.ME18054)</t>
+  </si>
+  <si>
+    <t>Bacterial 16S</t>
+  </si>
+  <si>
+    <t>AGAGTTTGATCMTGGCTCAG</t>
+  </si>
+  <si>
+    <t>ITS2r</t>
+  </si>
+  <si>
+    <t>ITS3tagmix</t>
+  </si>
+  <si>
+    <t>gITS7</t>
+  </si>
+  <si>
+    <t>ITS4NGS</t>
+  </si>
+  <si>
+    <t>GTGARTCATCGARTCTTTG</t>
+  </si>
+  <si>
+    <t>GCTGCGTTCTTCATCGATGC</t>
+  </si>
+  <si>
+    <t>CTAGACTCGTCANCGATGAAGAACGYRG</t>
+  </si>
+  <si>
+    <t>fungal (+ coral?) 5.8S (ITS1)</t>
+  </si>
+  <si>
+    <t>TTCCTSCGCTTATTGATATGC</t>
+  </si>
+  <si>
+    <t>FungiQuant-F</t>
+  </si>
+  <si>
+    <t>fungal (+ coral?) SSU</t>
+  </si>
+  <si>
+    <t>FungiQuant-R </t>
+  </si>
+  <si>
+    <t>GGRAAACTCACCAGGTCCAG</t>
+  </si>
+  <si>
+    <t>GSWCTATCCCCAKCACGA</t>
+  </si>
+  <si>
+    <t>(Frau et al 2019: https://doi.org/10.1038/s41598-019-44974-x)</t>
+  </si>
+  <si>
+    <t>Liu et al 2012: 10.1186/1471-2180-12-255</t>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GGRAAACTCACCAGGTCCAG</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>GTCTCGTGGGCTCGG</t>
     </r>
     <r>
@@ -1004,25 +1429,11 @@
         <color theme="9"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>CCGGACTACNVGGGTWTCTAAT</t>
-    </r>
-  </si>
-  <si>
-    <t>926r</t>
-  </si>
-  <si>
-    <t>GG</t>
-  </si>
-  <si>
-    <t>CCGYCAATTYMTTTRAGTTT</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
+      <t>GSWCTATCCCCAKCACGA</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>GTCTCGTGGGCTCGG</t>
     </r>
     <r>
@@ -1039,108 +1450,92 @@
         <color theme="9"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>GGCCGYCAATTYMTTTRAGTTT</t>
-    </r>
-  </si>
-  <si>
-    <t>25nm</t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t>2nd step:</t>
-  </si>
-  <si>
-    <t>Illumina adaptor</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>MAf</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACAC</t>
-  </si>
-  <si>
-    <t>xxxxxxxx</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="7"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>AATGATACGGCGACCACCGAGATCTACAC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>xxxxxxxx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
+      <t>GCTGCGTTCTTCATCGATGC</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>TCGTCGGCAGCGTC</t>
     </r>
-  </si>
-  <si>
-    <t>MAr</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGAT</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="7"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>CAAGCAGAAGACGGCATACGAGAT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>xxxxxxxx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CTAGACTCGTCANCGATGAAGAACGYRG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GTGARTCATCGARTCTTTG</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>GTCTCGTGGGCTCGG</t>
     </r>
-  </si>
-  <si>
-    <t>sequencing (don't order - standard MiSeq primers included on chip with sequencing kit):</t>
-  </si>
-  <si>
-    <t>read1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TTCCTSCGCTTATTGATATGC</t>
+    </r>
+  </si>
+  <si>
+    <t>LCO1490</t>
+  </si>
+  <si>
+    <t>HCO2198</t>
+  </si>
+  <si>
+    <t>Folmer et al 1994: PMID 7881515</t>
+  </si>
+  <si>
+    <t>cnidarian cox1</t>
+  </si>
+  <si>
+    <t>GGTCAACAAATCATAAAGATA</t>
+  </si>
+  <si>
+    <t>TAAACTTCAGGGTGACCAAAAAATCA</t>
+  </si>
+  <si>
+    <r>
       <t>TCGTCGGCAGCGTC</t>
     </r>
     <r>
@@ -1151,17 +1546,17 @@
       </rPr>
       <t>AGATGTGTATAAGAGACAG</t>
     </r>
-  </si>
-  <si>
-    <t>read2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GGTCAACAAATCATAAAGATA</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>GTCTCGTGGGCTCGG</t>
     </r>
     <r>
@@ -1172,103 +1567,18 @@
       </rPr>
       <t>AGATGTGTATAAGAGACAG</t>
     </r>
-  </si>
-  <si>
-    <t>index1 (rc of read2)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>CTGTCTCTTATACACATCT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>CCGAGCCCACGAGAC</t>
-    </r>
-  </si>
-  <si>
-    <t>full amplicon (515-806):</t>
-  </si>
-  <si>
-    <t>total amplicon length: 270 + 179 = 449</t>
-  </si>
-  <si>
-    <t>read length: 270 + 43 = 313</t>
-  </si>
-  <si>
-    <t>overlap (MiSeq 300 bp): 287</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACxxxxxxxxTCGTCGGCAGCGTCAGATGTGTATAAGAGACAGGTGTGYCAGCMGCCGCGGTAA...(270 bases)...ATTAGAWACCCBNGTAGTCCGGCTGTCTCTTATACACATCTCCGAGCCCACGAGACxxxxxxxxATCTCGTATGCCGTCTTCTGCTTG</t>
-  </si>
-  <si>
-    <t>full amplicon (515-926):</t>
-  </si>
-  <si>
-    <t>total amplicon length: 372 + 179 = 551</t>
-  </si>
-  <si>
-    <t>read length: 372 + 43 = 415</t>
-  </si>
-  <si>
-    <t>overlap (MiSeq 300 bp): 185</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="7"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>AATGATACGGCGACCACCGAGATCTACAC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>xxxxxxxx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TCGTCGGCAGCGTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>AGATGTGTATAAGAGACAG</t>
-    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="9"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>GTGTGYCAGCMGCCGCGGTAA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>...(372 bases)...</t>
+      <t>TAAACTTCAGGGTGACCAAAAAATCA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
     </r>
     <r>
       <rPr>
@@ -1276,73 +1586,12 @@
         <color theme="9"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>AAACTYAAAKRAATTGRCGGCC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>CTGTCTCTTATACACATCT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>CCGAGCCCACGAGAC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>xxxxxxxx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="7"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>ATCTCGTATGCCGTCTTCTGCTTG</t>
-    </r>
-  </si>
-  <si>
-    <t>ITS7o</t>
-  </si>
-  <si>
-    <t>GTGAATCATCRAATYTTTG</t>
-  </si>
-  <si>
-    <t>Kohout et al. 2014 Soil Biology and Biochemistry</t>
-  </si>
-  <si>
-    <t>Ihrmark et al 2013 FEMS Microbial Ecology</t>
-  </si>
-  <si>
-    <t>ITS7</t>
-  </si>
-  <si>
-    <t>GTGARTCATCGAATCTTTG</t>
-  </si>
-  <si>
-    <t>White 1990</t>
-  </si>
-  <si>
-    <r>
-      <t>TCGTCGGCAGCGTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>AGATGTGTATAAGAGACAG</t>
+      <t>CATGATCCTTCTGCAGGTTCACCTAC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
     </r>
     <r>
       <rPr>
@@ -1350,20 +1599,12 @@
         <color theme="9"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>GTGAATCATCRAATYTTTG</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TCGTCGGCAGCGTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>AGATGTGTATAAGAGACAG</t>
+      <t>TCTACAAATCATAAAGACATAGG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
     </r>
     <r>
       <rPr>
@@ -1371,98 +1612,12 @@
         <color theme="9"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>GTGARTCATCGAATCTTTG</t>
-    </r>
-  </si>
-  <si>
-    <t>Shiu 2018: 10.1264/jsme2.ME18054</t>
-  </si>
-  <si>
-    <t>Endozoicomonas 16S</t>
-  </si>
-  <si>
-    <t>En771R</t>
-  </si>
-  <si>
-    <t>TCAGTGTCARRCCTGAGTGT</t>
-  </si>
-  <si>
-    <t>27F</t>
-  </si>
-  <si>
-    <t>(Shiu 2018: 10.1264/jsme2.ME18054)</t>
-  </si>
-  <si>
-    <t>Bacterial 16S</t>
-  </si>
-  <si>
-    <t>AGAGTTTGATCMTGGCTCAG</t>
-  </si>
-  <si>
-    <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGTCAGTGTCARRCCTGAGTGT</t>
-  </si>
-  <si>
-    <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAGAGAGTTTGATCMTGGCTCAG</t>
-  </si>
-  <si>
-    <t>ITS2r</t>
-  </si>
-  <si>
-    <t>ITS3tagmix</t>
-  </si>
-  <si>
-    <t>gITS7</t>
-  </si>
-  <si>
-    <t>ITS4NGS</t>
-  </si>
-  <si>
-    <t>GTGARTCATCGARTCTTTG</t>
-  </si>
-  <si>
-    <t>GCTGCGTTCTTCATCGATGC</t>
-  </si>
-  <si>
-    <t>CTAGACTCGTCANCGATGAAGAACGYRG</t>
-  </si>
-  <si>
-    <t>fungal (+ coral?) 5.8S (ITS1)</t>
-  </si>
-  <si>
-    <t>TTCCTSCGCTTATTGATATGC</t>
-  </si>
-  <si>
-    <t>FungiQuant-F</t>
-  </si>
-  <si>
-    <t>fungal (+ coral?) SSU</t>
-  </si>
-  <si>
-    <t>FungiQuant-R </t>
-  </si>
-  <si>
-    <t>GGRAAACTCACCAGGTCCAG</t>
-  </si>
-  <si>
-    <t>GSWCTATCCCCAKCACGA</t>
-  </si>
-  <si>
-    <t>(Frau et al 2019: https://doi.org/10.1038/s41598-019-44974-x)</t>
-  </si>
-  <si>
-    <t>Liu et al 2012: 10.1186/1471-2180-12-255</t>
-  </si>
-  <si>
-    <r>
-      <t>TCGTCGGCAGCGTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>AGATGTGTATAAGAGACAG</t>
+      <t>GAGAAATTATACCAAAACCAGG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
     </r>
     <r>
       <rPr>
@@ -1470,20 +1625,12 @@
         <color theme="9"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>GGRAAACTCACCAGGTCCAG</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GTCTCGTGGGCTCGG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>AGATGTGTATAAGAGACAG</t>
+      <t>GACATGGCTATTTTTAGCCT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
     </r>
     <r>
       <rPr>
@@ -1491,20 +1638,12 @@
         <color theme="9"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>GSWCTATCCCCAKCACGA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GTCTCGTGGGCTCGG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>AGATGTGTATAAGAGACAG</t>
+      <t>AAGCATAGGAGTGTCGTCTAATC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
     </r>
     <r>
       <rPr>
@@ -1512,20 +1651,12 @@
         <color theme="9"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>GCTGCGTTCTTCATCGATGC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TCGTCGGCAGCGTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>AGATGTGTATAAGAGACAG</t>
+      <t>CTACTAATCATAAAGATATCGG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
     </r>
     <r>
       <rPr>
@@ -1533,20 +1664,12 @@
         <color theme="9"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>CTAGACTCGTCANCGATGAAGAACGYRG</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TCGTCGGCAGCGTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>AGATGTGTATAAGAGACAG</t>
+      <t>CAAAGTCAGAGTATCGTCTTGG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
     </r>
     <r>
       <rPr>
@@ -1554,20 +1677,12 @@
         <color theme="9"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>GTGARTCATCGARTCTTTG</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GTCTCGTGGGCTCGG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>AGATGTGTATAAGAGACAG</t>
+      <t>TCNACHAAYCAYAAAGAYATHGG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
     </r>
     <r>
       <rPr>
@@ -1575,8 +1690,216 @@
         <color theme="9"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>TTCCTSCGCTTATTGATATGC</t>
-    </r>
+      <t>GAGADATBATNCCAAAVCCAGG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GTTGCTAGTAGTAATTTGGATTG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CAAACCCACCAAGCTTAATA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GCCGTCTCCTTCAAATATAAG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GTGGAACTTCGGTTCTTTATT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ATACAGAGGCTAATTGTCC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AAAAGGCTCTTCTACAAC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GCATGGGAACGCTCCTTATTT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ACATCTGTTGAGTGAGTTCTG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GGTACCCTTTGTACACACCGCCCGTCGCT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GCTTTGGGCGGCAGTCCCAAGCAACCCGACTC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TCAGTGTCARRCCTGAGTGT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AGAGTTTGATCMTGGCTCAG</t>
+    </r>
+  </si>
+  <si>
+    <t>Symbiodinium (+ some apicomplexans) LSU (ITS2)</t>
+  </si>
+  <si>
+    <t>~708 bp</t>
+  </si>
+  <si>
+    <t>Amaral-Zettler et al. 2009</t>
+  </si>
+  <si>
+    <t>Stoek et al. 2010</t>
+  </si>
+  <si>
+    <t>~260 +/- 50 bp</t>
+  </si>
+  <si>
+    <t>Eukaryotic 18S V9</t>
+  </si>
+  <si>
+    <t>Prokaryotic 16S V4</t>
+  </si>
+  <si>
+    <t>Prokaryotic 16S V4-5</t>
+  </si>
+  <si>
+    <r>
+      <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CGGTACACACCGCCCGTC</t>
+    </r>
+  </si>
+  <si>
+    <t>Parada et al. 2016</t>
+  </si>
+  <si>
+    <t>Apprill et al. 2015</t>
+  </si>
+  <si>
+    <t>Quince et al. 2011</t>
+  </si>
+  <si>
+    <t>~390 bp</t>
+  </si>
+  <si>
+    <t>~510 bp</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +2255,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1990,6 +2313,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2301,17 +2627,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.1640625" customWidth="1"/>
     <col min="4" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
@@ -2351,10 +2677,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="22" t="s">
@@ -2365,17 +2691,17 @@
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="24" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="39"/>
       <c r="C4" s="27" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="47"/>
@@ -2385,10 +2711,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="41" t="s">
@@ -2399,10 +2725,10 @@
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="46" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2561,7 +2887,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="44"/>
       <c r="C16" s="27" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="47"/>
@@ -2571,10 +2897,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="41" t="s">
@@ -2585,10 +2911,10 @@
       </c>
       <c r="F17" s="40"/>
       <c r="G17" s="46" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="H17" s="49" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2603,10 +2929,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="41" t="s">
@@ -2617,10 +2943,10 @@
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="46" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -2635,10 +2961,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="41" t="s">
@@ -2649,10 +2975,10 @@
       </c>
       <c r="F21" s="40"/>
       <c r="G21" s="46" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="H21" s="49" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2669,10 +2995,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="41" t="s">
@@ -2683,10 +3009,10 @@
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="46" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H23" s="49" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2701,10 +3027,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="41" t="s">
@@ -2715,10 +3041,10 @@
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="46" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2736,7 +3062,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="41" t="s">
@@ -2765,10 +3091,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>32</v>
@@ -2781,10 +3107,10 @@
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="46" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="H29" s="49" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2867,7 +3193,7 @@
       </c>
       <c r="B35" s="40"/>
       <c r="C35" s="40" t="s">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="D35" s="41" t="s">
         <v>26</v>
@@ -2877,10 +3203,10 @@
       </c>
       <c r="F35" s="40"/>
       <c r="G35" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -2897,11 +3223,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>232</v>
+      </c>
       <c r="C37" s="20" t="s">
-        <v>46</v>
+        <v>235</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>10</v>
@@ -2910,13 +3238,16 @@
         <v>11</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>49</v>
+        <v>238</v>
+      </c>
+      <c r="I37" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -2930,14 +3261,19 @@
       <c r="H38" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="I38" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="40"/>
+        <v>47</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>233</v>
+      </c>
       <c r="C39" s="40" t="s">
-        <v>46</v>
+        <v>235</v>
       </c>
       <c r="D39" s="41" t="s">
         <v>26</v>
@@ -2946,13 +3282,16 @@
         <v>11</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G39" s="46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>53</v>
+        <v>209</v>
+      </c>
+      <c r="I39" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -2969,13 +3308,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>55</v>
+        <v>203</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>10</v>
@@ -2985,13 +3324,13 @@
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>58</v>
+        <v>205</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>207</v>
       </c>
       <c r="I41" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3002,22 +3341,20 @@
       <c r="E42" s="40"/>
       <c r="F42" s="40"/>
       <c r="G42" s="46"/>
-      <c r="H42" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="H42" s="5"/>
       <c r="I42" t="s">
-        <v>59</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>55</v>
+        <v>203</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D43" s="41" t="s">
         <v>26</v>
@@ -3027,39 +3364,34 @@
       </c>
       <c r="F43" s="40"/>
       <c r="G43" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>62</v>
+        <v>206</v>
+      </c>
+      <c r="H43" s="49" t="s">
+        <v>208</v>
       </c>
       <c r="I43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="47"/>
       <c r="F44" s="40"/>
       <c r="G44" s="46"/>
-      <c r="H44" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I44" t="s">
-        <v>59</v>
-      </c>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D45" s="41" t="s">
         <v>10</v>
@@ -3069,13 +3401,13 @@
       </c>
       <c r="F45" s="40"/>
       <c r="G45" s="46" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="I45" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -3090,18 +3422,18 @@
         <v>40</v>
       </c>
       <c r="I46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D47" s="41" t="s">
         <v>26</v>
@@ -3111,39 +3443,39 @@
       </c>
       <c r="F47" s="40"/>
       <c r="G47" s="46" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>70</v>
+        <v>211</v>
       </c>
       <c r="I47" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="40"/>
       <c r="C48" s="40"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="47"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
       <c r="F48" s="40"/>
       <c r="G48" s="46"/>
       <c r="H48" s="5" t="s">
         <v>40</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D49" s="41" t="s">
         <v>10</v>
@@ -3153,13 +3485,13 @@
       </c>
       <c r="F49" s="40"/>
       <c r="G49" s="46" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="I49" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -3174,18 +3506,18 @@
         <v>40</v>
       </c>
       <c r="I50" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D51" s="41" t="s">
         <v>26</v>
@@ -3195,13 +3527,13 @@
       </c>
       <c r="F51" s="40"/>
       <c r="G51" s="46" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="I51" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -3216,18 +3548,18 @@
         <v>40</v>
       </c>
       <c r="I52" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D53" s="41" t="s">
         <v>10</v>
@@ -3237,13 +3569,13 @@
       </c>
       <c r="F53" s="40"/>
       <c r="G53" s="46" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="I53" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -3254,20 +3586,22 @@
       <c r="E54" s="40"/>
       <c r="F54" s="40"/>
       <c r="G54" s="46"/>
-      <c r="H54" s="5"/>
+      <c r="H54" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="I54" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D55" s="41" t="s">
         <v>26</v>
@@ -3277,13 +3611,13 @@
       </c>
       <c r="F55" s="40"/>
       <c r="G55" s="46" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="I55" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -3294,20 +3628,22 @@
       <c r="E56" s="47"/>
       <c r="F56" s="40"/>
       <c r="G56" s="46"/>
-      <c r="H56" s="5"/>
+      <c r="H56" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="I56" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D57" s="41" t="s">
         <v>10</v>
@@ -3317,13 +3653,13 @@
       </c>
       <c r="F57" s="40"/>
       <c r="G57" s="46" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="I57" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -3334,22 +3670,20 @@
       <c r="E58" s="40"/>
       <c r="F58" s="40"/>
       <c r="G58" s="46"/>
-      <c r="H58" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="H58" s="5"/>
       <c r="I58" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D59" s="41" t="s">
         <v>26</v>
@@ -3359,13 +3693,13 @@
       </c>
       <c r="F59" s="40"/>
       <c r="G59" s="46" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="I59" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -3376,22 +3710,17 @@
       <c r="E60" s="47"/>
       <c r="F60" s="40"/>
       <c r="G60" s="46"/>
-      <c r="H60" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I60" t="s">
-        <v>59</v>
-      </c>
+      <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D61" s="41" t="s">
         <v>10</v>
@@ -3401,13 +3730,13 @@
       </c>
       <c r="F61" s="40"/>
       <c r="G61" s="46" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="I61" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -3422,18 +3751,18 @@
         <v>40</v>
       </c>
       <c r="I62" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D63" s="41" t="s">
         <v>26</v>
@@ -3443,13 +3772,13 @@
       </c>
       <c r="F63" s="40"/>
       <c r="G63" s="46" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
       <c r="I63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -3464,18 +3793,18 @@
         <v>40</v>
       </c>
       <c r="I64" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D65" s="41" t="s">
         <v>10</v>
@@ -3485,13 +3814,13 @@
       </c>
       <c r="F65" s="40"/>
       <c r="G65" s="46" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="I65" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -3506,18 +3835,18 @@
         <v>40</v>
       </c>
       <c r="I66" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D67" s="41" t="s">
         <v>26</v>
@@ -3527,13 +3856,13 @@
       </c>
       <c r="F67" s="40"/>
       <c r="G67" s="46" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="I67" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -3547,16 +3876,19 @@
       <c r="H68" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="I68" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D69" s="41" t="s">
         <v>10</v>
@@ -3566,10 +3898,13 @@
       </c>
       <c r="F69" s="40"/>
       <c r="G69" s="46" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>113</v>
+        <v>221</v>
+      </c>
+      <c r="I69" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -3580,22 +3915,22 @@
       <c r="E70" s="40"/>
       <c r="F70" s="40"/>
       <c r="G70" s="46"/>
-      <c r="H70" s="16" t="s">
+      <c r="H70" s="5" t="s">
         <v>40</v>
       </c>
       <c r="I70" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D71" s="41" t="s">
         <v>26</v>
@@ -3605,10 +3940,13 @@
       </c>
       <c r="F71" s="40"/>
       <c r="G71" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="H71" s="16" t="s">
-        <v>117</v>
+        <v>101</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I71" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -3619,19 +3957,19 @@
       <c r="E72" s="47"/>
       <c r="F72" s="40"/>
       <c r="G72" s="46"/>
-      <c r="H72" s="16" t="s">
+      <c r="H72" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D73" s="41" t="s">
         <v>10</v>
@@ -3641,10 +3979,13 @@
       </c>
       <c r="F73" s="40"/>
       <c r="G73" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="H73" s="16" t="s">
-        <v>122</v>
+        <v>105</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="I73" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -3659,18 +4000,18 @@
         <v>40</v>
       </c>
       <c r="I74" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="D75" s="41" t="s">
         <v>26</v>
@@ -3680,180 +4021,280 @@
       </c>
       <c r="F75" s="40"/>
       <c r="G75" s="46" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="32"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="35"/>
+        <v>225</v>
+      </c>
+      <c r="I75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="4"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="16"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="D77" s="41" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E77" s="47" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="40"/>
       <c r="G77" s="46" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>187</v>
+        <v>226</v>
+      </c>
+      <c r="I77" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="47"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
       <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="5"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E79" s="47" t="s">
         <v>11</v>
       </c>
       <c r="F79" s="40"/>
       <c r="G79" s="46" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="4"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="5"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B81" s="22"/>
-      <c r="C81" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D81" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="I79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="32"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="35"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F81" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="G81" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="H81" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F81" s="40"/>
+      <c r="G81" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="H81" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="40"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="47"/>
       <c r="F82" s="40"/>
       <c r="G82" s="40"/>
       <c r="H82" s="5"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B83" s="41"/>
+        <v>175</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>176</v>
+      </c>
       <c r="C83" s="40" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D83" s="41" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E83" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="46" t="s">
-        <v>134</v>
-      </c>
+      <c r="F83" s="40"/>
       <c r="G83" s="46" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="47"/>
       <c r="F84" s="40"/>
       <c r="G84" s="40"/>
       <c r="H84" s="5"/>
     </row>
-    <row r="85" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="7" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H85" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="I85" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="4"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="5"/>
+      <c r="I86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="C87" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="G87" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I87" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="4"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="B89" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D89" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E89" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H85" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G86" t="str">
-        <f>CONCATENATE(B86,C86,D86,E86)</f>
+      <c r="F89" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H89" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I89" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G90" t="str">
+        <f>CONCATENATE(B90,C90,D90,E90)</f>
         <v/>
       </c>
     </row>
@@ -3890,10 +4331,10 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3908,10 +4349,10 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -3926,298 +4367,298 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>MCOIF -MAf</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>AcMCOIF-MAf</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>SeaMCOIF-MAf</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>MCytbF-MAf</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>AcCytbF-MAf</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>SeaCytbF-MAf</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>TubulinF-MAf</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>1S-MAf</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I11" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B12" t="str">
         <f>CONCATENATE(A12,"-MAr")</f>
         <v>2SS-MAr</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" ref="B13:B21" si="1">CONCATENATE(A13,"-MAr")</f>
         <v>TubulinR-MAr</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
         <v>SeaCytbR-MAr</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
         <v>AcCytbR-MAr</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
         <v>MCytbR-MAr</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="1"/>
         <v>SeaMCOIR-MAr</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="1"/>
         <v>AcMCOIR-MAr</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J18" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="1"/>
         <v>MCOIR-MAr</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J19" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -4232,10 +4673,10 @@
         <v>28</v>
       </c>
       <c r="I20" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J20" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -4250,10 +4691,10 @@
         <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J21" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4281,7 +4722,7 @@
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4293,10 +4734,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -4307,19 +4748,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4328,25 +4769,25 @@
     </row>
     <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B10" s="3"/>
     </row>
@@ -4360,10 +4801,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C12" s="14"/>
     </row>
@@ -4373,10 +4814,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4385,32 +4826,32 @@
     </row>
     <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -4421,23 +4862,23 @@
     <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>

--- a/wetlab_protocols/amplicon_SOPs/primer_designs/2-step_primer_designs.xlsx
+++ b/wetlab_protocols/amplicon_SOPs/primer_designs/2-step_primer_designs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ryan/scripts/analysis_templates/wetlab_protocols/amplicon_SOPs/primer_designs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01396A9B-0A9C-E04C-87D5-E7D03123A0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FCD119-9798-AD42-9460-F511E181BAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="259">
   <si>
     <t>#The data from these primers will include the linker and primer sequences, which will need to be trimmed before analysis</t>
   </si>
@@ -148,9 +148,6 @@
     </r>
   </si>
   <si>
-    <t>fungal (+ coral?) SSU (ITS1)</t>
-  </si>
-  <si>
     <t>ITS1</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
     <t>B58S3</t>
   </si>
   <si>
-    <t>fungal (+ coral?) 5.8S (ITS2)</t>
-  </si>
-  <si>
     <t>GTCTCGTGGGCTCGG</t>
   </si>
   <si>
@@ -305,9 +299,6 @@
     </r>
   </si>
   <si>
-    <t>fungal (+ coral?) LSU (ITS2)</t>
-  </si>
-  <si>
     <t>NLB4</t>
   </si>
   <si>
@@ -1262,12 +1253,6 @@
     <t>GTGAATCATCRAATYTTTG</t>
   </si>
   <si>
-    <t>Kohout et al. 2014 Soil Biology and Biochemistry</t>
-  </si>
-  <si>
-    <t>Ihrmark et al 2013 FEMS Microbial Ecology</t>
-  </si>
-  <si>
     <t>ITS7</t>
   </si>
   <si>
@@ -1334,9 +1319,6 @@
     <t>27F</t>
   </si>
   <si>
-    <t>(Shiu 2018: 10.1264/jsme2.ME18054)</t>
-  </si>
-  <si>
     <t>Bacterial 16S</t>
   </si>
   <si>
@@ -1364,18 +1346,12 @@
     <t>CTAGACTCGTCANCGATGAAGAACGYRG</t>
   </si>
   <si>
-    <t>fungal (+ coral?) 5.8S (ITS1)</t>
-  </si>
-  <si>
     <t>TTCCTSCGCTTATTGATATGC</t>
   </si>
   <si>
     <t>FungiQuant-F</t>
   </si>
   <si>
-    <t>fungal (+ coral?) SSU</t>
-  </si>
-  <si>
     <t>FungiQuant-R </t>
   </si>
   <si>
@@ -1385,9 +1361,6 @@
     <t>GSWCTATCCCCAKCACGA</t>
   </si>
   <si>
-    <t>(Frau et al 2019: https://doi.org/10.1038/s41598-019-44974-x)</t>
-  </si>
-  <si>
     <t>Liu et al 2012: 10.1186/1471-2180-12-255</t>
   </si>
   <si>
@@ -1850,9 +1823,6 @@
     </r>
   </si>
   <si>
-    <t>Symbiodinium (+ some apicomplexans) LSU (ITS2)</t>
-  </si>
-  <si>
     <t>~708 bp</t>
   </si>
   <si>
@@ -1900,6 +1870,81 @@
   </si>
   <si>
     <t>~510 bp</t>
+  </si>
+  <si>
+    <t>Toju et al. 2012</t>
+  </si>
+  <si>
+    <t>Gardes and Bruns 1993</t>
+  </si>
+  <si>
+    <t>other resources</t>
+  </si>
+  <si>
+    <t>Bukulich and Mills 2013: 10.1128/AEM.03870-12</t>
+  </si>
+  <si>
+    <t>Frau et al 2019: 10.1038/s41598-019-44974-x</t>
+  </si>
+  <si>
+    <t>https://earthmicrobiome.org/protocols-and-standards/16s/</t>
+  </si>
+  <si>
+    <t>https://earthmicrobiome.org/protocols-and-standards/18s/</t>
+  </si>
+  <si>
+    <t>Bukulich and Mills 2013: 10.1128/AEM.03870-12, https://earthmicrobiome.org/protocols-and-standards/its/</t>
+  </si>
+  <si>
+    <t>Bukulich and Mills 2013: 10.1128/AEM.03870-12, Frau et al 2019: 10.1038/s41598-019-44974-x</t>
+  </si>
+  <si>
+    <t>~300 +/- 50 bp with ITS7</t>
+  </si>
+  <si>
+    <t>Symbiodiniaceae (+ some apicomplexans) LSU (ITS2)</t>
+  </si>
+  <si>
+    <t>Tedersoo et al. 2015: 10.3897/mycokeys.10.4852</t>
+  </si>
+  <si>
+    <t>Ihrmark et al 2012: 10.1111/j.1574-6941.2012.01437.x</t>
+  </si>
+  <si>
+    <t>Tedersoo et al 2014</t>
+  </si>
+  <si>
+    <t>fungal (+?) LSU (ITS2)</t>
+  </si>
+  <si>
+    <t>Eukaryotic LSU (ITS2)</t>
+  </si>
+  <si>
+    <t>fungal (+?) 5.8S (ITS2)</t>
+  </si>
+  <si>
+    <t>fungal (+?) 5.8S (ITS1)</t>
+  </si>
+  <si>
+    <t>fungal (+?) SSU (ITS1)</t>
+  </si>
+  <si>
+    <t>fungal SSU</t>
+  </si>
+  <si>
+    <t>351 bp</t>
+  </si>
+  <si>
+    <t>Kohout et al. 2014: 10.1016/j.soilbio.2013.08.027</t>
+  </si>
+  <si>
+    <t>Lekberg et al. 2018: 10.1111/nph.15035</t>
+  </si>
+  <si>
+    <t>Bukulich and Mills 2013: 10.1128/AEM.03870-12, Lekberg et al. 2018: 10.1111/nph.15035</t>
+  </si>
+  <si>
+    <t>~250–600 bp with ITS1F</t>
   </si>
 </sst>
 </file>
@@ -2019,7 +2064,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2139,37 +2184,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -2212,12 +2226,40 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2255,7 +2297,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2283,15 +2325,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2304,10 +2342,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2316,6 +2350,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2627,1674 +2667,1829 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.1640625" customWidth="1"/>
-    <col min="4" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="76.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="F3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" s="20"/>
+      <c r="H3" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="5"/>
+      <c r="J4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" s="36"/>
+      <c r="H5" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="41" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="F7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="49"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="41" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="F9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="36"/>
+      <c r="H9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="41" t="s">
+      <c r="I11" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="F13" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="G13" s="36"/>
+      <c r="H13" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="41" t="s">
+      <c r="I13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="J17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="F19" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="G19" s="36"/>
+      <c r="H19" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="36"/>
+      <c r="H23" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="51"/>
+      <c r="C25" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="36"/>
+      <c r="H25" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25" s="41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="E27" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="47" t="s">
+      <c r="F27" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="G27" s="36"/>
+      <c r="H27" s="38" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B17" s="39" t="s">
+      <c r="I27" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" s="41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="36"/>
+      <c r="H35" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="J37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="20"/>
+      <c r="H41" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="I41" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="J41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="5"/>
+      <c r="J42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="47" t="s">
+      <c r="B43" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="36"/>
+      <c r="E43" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="H17" s="49" t="s">
+      <c r="G43" s="36"/>
+      <c r="H43" s="38" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="41" t="s">
+      <c r="I43" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="J43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="36"/>
+      <c r="E45" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="F45" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="H19" s="49" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="41" t="s">
+      <c r="G45" s="36"/>
+      <c r="H45" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="36"/>
+      <c r="E47" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="36"/>
+      <c r="H47" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="36"/>
+      <c r="E49" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="F49" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="H21" s="49" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="41" t="s">
+      <c r="G49" s="36"/>
+      <c r="H49" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="36"/>
+      <c r="E51" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="36"/>
+      <c r="H51" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="36"/>
+      <c r="E53" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="F53" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="H23" s="49" t="s">
+      <c r="G53" s="36"/>
+      <c r="H53" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="36"/>
+      <c r="E55" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="36"/>
+      <c r="H55" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="J55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="36"/>
+      <c r="E57" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="36"/>
+      <c r="H57" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="J57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="5"/>
+      <c r="J58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="36"/>
+      <c r="E59" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="36"/>
+      <c r="H59" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="J59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="36"/>
+      <c r="E61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="36"/>
+      <c r="H61" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="36"/>
+      <c r="E63" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="36"/>
+      <c r="H63" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="J63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="36"/>
+      <c r="E65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="36"/>
+      <c r="H65" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="4"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="36"/>
+      <c r="E67" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="36"/>
+      <c r="H67" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="36"/>
+      <c r="E69" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="36"/>
+      <c r="H69" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="36"/>
+      <c r="E71" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="36"/>
+      <c r="H71" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="36"/>
+      <c r="E73" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="36"/>
+      <c r="H73" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="J73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="36"/>
+      <c r="E75" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="36"/>
+      <c r="H75" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="J75" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="4"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="16"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" s="36"/>
+      <c r="E77" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="36"/>
+      <c r="H77" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="J77" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="4"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" s="36"/>
+      <c r="E79" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="36"/>
+      <c r="H79" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="J79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="28"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="31"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="36"/>
+      <c r="E81" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="36"/>
+      <c r="H81" s="38" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="I81" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="4"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="B25" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="41" t="s">
+      <c r="E83" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="F83" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="H25" s="49" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="47" t="s">
+      <c r="G83" s="36"/>
+      <c r="H83" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="4"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="D85" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="47" t="s">
+      <c r="G85" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H85" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I85" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="J85" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="4"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="5"/>
+      <c r="J86" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="E87" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="H29" s="49" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="47" t="s">
+      <c r="G87" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H87" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J87" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="4"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C89" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D89" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="40"/>
-      <c r="G35" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="I37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="40" t="s">
+      <c r="G89" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I89" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J89" t="s">
         <v>233</v>
       </c>
-      <c r="C39" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="H41" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="I41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="5"/>
-      <c r="I42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B43" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="40"/>
-      <c r="G43" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="H43" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="I43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="40"/>
-      <c r="G47" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="40"/>
-      <c r="G49" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I50" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="40"/>
-      <c r="G51" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="I53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="40"/>
-      <c r="G55" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="I55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="40"/>
-      <c r="G57" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="5"/>
-      <c r="I58" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="40"/>
-      <c r="G59" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="I59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="5"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="40"/>
-      <c r="G61" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="I61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I62" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B63" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="40"/>
-      <c r="G63" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I63" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="4"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I64" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B65" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="D65" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="40"/>
-      <c r="G65" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I65" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B67" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="D67" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="40"/>
-      <c r="G67" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="I67" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I68" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B69" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="40"/>
-      <c r="G69" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I69" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="4"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I70" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E71" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="40"/>
-      <c r="G71" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I71" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B73" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="40"/>
-      <c r="G73" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I73" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B75" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D75" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="40"/>
-      <c r="G75" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="H75" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="I75" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="16"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B77" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="40"/>
-      <c r="G77" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="H77" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="I77" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I78" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B79" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C79" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D79" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E79" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="40"/>
-      <c r="G79" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="H79" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="I79" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="32"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="35"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B81" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="C81" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="D81" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E81" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="40"/>
-      <c r="G81" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="H81" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="4"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="40"/>
-      <c r="G82" s="40"/>
-      <c r="H82" s="5"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B83" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="C83" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="D83" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="40"/>
-      <c r="G83" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="H83" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="4"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="5"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B85" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="G85" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="H85" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="I85" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="4"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="5"/>
-      <c r="I86" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B87" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="C87" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="D87" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="G87" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="H87" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="I87" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="4"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="40"/>
-      <c r="G88" s="40"/>
-      <c r="H88" s="5"/>
-    </row>
-    <row r="89" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B89" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H89" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="I89" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G90" t="str">
-        <f>CONCATENATE(B90,C90,D90,E90)</f>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H90" t="str">
+        <f>CONCATENATE(D90,B90,E90,F90)</f>
         <v/>
       </c>
     </row>
@@ -4331,370 +4526,370 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B11" si="0">CONCATENATE(A2,"-MAf")</f>
         <v>ITS1-MAf</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
         <v>BITS-MAf</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>MCOIF -MAf</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>AcMCOIF-MAf</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>SeaMCOIF-MAf</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>MCytbF-MAf</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>AcCytbF-MAf</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>SeaCytbF-MAf</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>TubulinF-MAf</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>1S-MAf</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B12" t="str">
         <f>CONCATENATE(A12,"-MAr")</f>
         <v>2SS-MAr</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" ref="B13:B21" si="1">CONCATENATE(A13,"-MAr")</f>
         <v>TubulinR-MAr</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
         <v>SeaCytbR-MAr</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
         <v>AcCytbR-MAr</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
         <v>MCytbR-MAr</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="1"/>
         <v>SeaMCOIR-MAr</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="1"/>
         <v>AcMCOIR-MAr</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="1"/>
         <v>MCOIR-MAr</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="1"/>
         <v>B58S3-MAr</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="1"/>
         <v>NLB4-MAr</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4707,7 +4902,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4722,7 +4917,7 @@
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4734,10 +4929,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -4748,19 +4943,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4769,25 +4964,25 @@
     </row>
     <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B10" s="3"/>
     </row>
@@ -4801,10 +4996,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C12" s="14"/>
     </row>
@@ -4814,10 +5009,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4826,65 +5021,65 @@
     </row>
     <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
+      <c r="A21" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
+      <c r="A25" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/wetlab_protocols/amplicon_SOPs/primer_designs/2-step_primer_designs.xlsx
+++ b/wetlab_protocols/amplicon_SOPs/primer_designs/2-step_primer_designs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ryan/scripts/analysis_templates/wetlab_protocols/amplicon_SOPs/primer_designs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FCD119-9798-AD42-9460-F511E181BAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8514FD8-DDEF-5940-B4C7-95790ECC53FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2669,8 +2669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/wetlab_protocols/amplicon_SOPs/primer_designs/2-step_primer_designs.xlsx
+++ b/wetlab_protocols/amplicon_SOPs/primer_designs/2-step_primer_designs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ryan/scripts/analysis_templates/wetlab_protocols/amplicon_SOPs/primer_designs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8514FD8-DDEF-5940-B4C7-95790ECC53FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF396B73-7D3D-FD4E-81C8-C3586D8E50A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="261">
   <si>
     <t>#The data from these primers will include the linker and primer sequences, which will need to be trimmed before analysis</t>
   </si>
@@ -1945,6 +1945,12 @@
   </si>
   <si>
     <t>~250–600 bp with ITS1F</t>
+  </si>
+  <si>
+    <t>Stat et al. 2009</t>
+  </si>
+  <si>
+    <t>Pochon et al. 2001</t>
   </si>
 </sst>
 </file>
@@ -2297,7 +2303,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2330,6 +2336,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2339,23 +2356,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2669,8 +2669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2723,11 +2723,11 @@
       <c r="A3" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="32" t="s">
         <v>238</v>
       </c>
       <c r="E3" s="22" t="s">
@@ -2740,7 +2740,7 @@
       <c r="H3" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="36" t="s">
         <v>186</v>
       </c>
       <c r="J3" t="s">
@@ -2749,15 +2749,14 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="14"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="5"/>
       <c r="J4" t="s">
         <v>254</v>
@@ -2767,24 +2766,23 @@
       <c r="A5" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="35" t="s">
         <v>187</v>
       </c>
       <c r="J5" t="s">
@@ -2793,34 +2791,32 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="14"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="33" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -2829,34 +2825,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="38"/>
+      <c r="B8" s="40"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="35" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="33" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="16" t="s">
@@ -2865,36 +2855,32 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="38"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="33" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="16" t="s">
@@ -2903,32 +2889,26 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="33" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -2937,32 +2917,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="38"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="33" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="5" t="s">
@@ -2971,39 +2944,37 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="38"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="14"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="35" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="35" t="s">
         <v>188</v>
       </c>
       <c r="J17" t="s">
@@ -3012,182 +2983,165 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="38"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="14"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="35" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="35" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="14"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="35" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="38" t="s">
+      <c r="H21" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="35" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="38"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="14"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="40" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="35" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="38"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="35" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="38" t="s">
+      <c r="H25" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="I25" s="41" t="s">
+      <c r="I25" s="35" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="38"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="38" t="s">
+      <c r="H27" s="33" t="s">
         <v>28</v>
       </c>
       <c r="I27" s="16" t="s">
@@ -3199,72 +3153,66 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="14"/>
+      <c r="H28" s="33"/>
       <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="38" t="s">
+      <c r="H29" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="I29" s="41" t="s">
+      <c r="I29" s="35" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="H30" s="33"/>
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="38" t="s">
+      <c r="H31" s="33" t="s">
         <v>31</v>
       </c>
       <c r="I31" s="16" t="s">
@@ -3273,13 +3221,12 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="38"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="14"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -3289,7 +3236,9 @@
       <c r="B33" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="26"/>
+      <c r="C33" s="26" t="s">
+        <v>260</v>
+      </c>
       <c r="D33" s="26"/>
       <c r="E33" s="22" t="s">
         <v>10</v>
@@ -3307,13 +3256,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="38"/>
+      <c r="H34" s="33"/>
       <c r="I34" s="5" t="s">
         <v>37</v>
       </c>
@@ -3322,19 +3265,19 @@
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" t="s">
         <v>244</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="37" t="s">
+      <c r="C35" t="s">
+        <v>259</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="38" t="s">
+      <c r="H35" s="33" t="s">
         <v>39</v>
       </c>
       <c r="I35" s="5" t="s">
@@ -3343,13 +3286,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="38"/>
+      <c r="H36" s="33"/>
       <c r="I36" s="5" t="s">
         <v>37</v>
       </c>
@@ -3388,13 +3325,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="38"/>
+      <c r="H38" s="33"/>
       <c r="I38" s="5" t="s">
         <v>37</v>
       </c>
@@ -3406,25 +3337,25 @@
       <c r="A39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" t="s">
         <v>225</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" t="s">
         <v>223</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" t="s">
         <v>240</v>
       </c>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="39" t="s">
+      <c r="F39" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="38" t="s">
+      <c r="G39" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H39" s="38" t="s">
+      <c r="H39" s="33" t="s">
         <v>46</v>
       </c>
       <c r="I39" s="5" t="s">
@@ -3436,13 +3367,12 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="38"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="14"/>
+      <c r="H40" s="33"/>
       <c r="I40" s="5" t="s">
         <v>37</v>
       </c>
@@ -3468,7 +3398,7 @@
       <c r="H41" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="I41" s="42" t="s">
+      <c r="I41" s="36" t="s">
         <v>198</v>
       </c>
       <c r="J41" t="s">
@@ -3477,13 +3407,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="38"/>
+      <c r="H42" s="33"/>
       <c r="I42" s="5"/>
       <c r="J42" t="s">
         <v>221</v>
@@ -3493,24 +3417,22 @@
       <c r="A43" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" t="s">
         <v>194</v>
       </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="39" t="s">
+      <c r="F43" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="36"/>
-      <c r="H43" s="38" t="s">
+      <c r="H43" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="I43" s="41" t="s">
+      <c r="I43" s="35" t="s">
         <v>199</v>
       </c>
       <c r="J43" t="s">
@@ -3519,34 +3441,28 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="38"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="14"/>
+      <c r="H44" s="33"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="39" t="s">
+      <c r="F45" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="36"/>
-      <c r="H45" s="38" t="s">
+      <c r="H45" s="33" t="s">
         <v>50</v>
       </c>
       <c r="I45" s="5" t="s">
@@ -3558,13 +3474,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="38"/>
+      <c r="H46" s="33"/>
       <c r="I46" s="5" t="s">
         <v>37</v>
       </c>
@@ -3576,21 +3486,19 @@
       <c r="A47" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="37" t="s">
+      <c r="E47" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="39" t="s">
+      <c r="F47" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="36"/>
-      <c r="H47" s="38" t="s">
+      <c r="H47" s="33" t="s">
         <v>54</v>
       </c>
       <c r="I47" s="5" t="s">
@@ -3602,13 +3510,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="38"/>
+      <c r="H48" s="33"/>
       <c r="I48" s="5" t="s">
         <v>37</v>
       </c>
@@ -3620,21 +3522,19 @@
       <c r="A49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="36"/>
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="39" t="s">
+      <c r="F49" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="38" t="s">
+      <c r="H49" s="33" t="s">
         <v>59</v>
       </c>
       <c r="I49" s="5" t="s">
@@ -3646,13 +3546,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="38"/>
+      <c r="H50" s="33"/>
       <c r="I50" s="5" t="s">
         <v>37</v>
       </c>
@@ -3664,21 +3558,19 @@
       <c r="A51" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="36"/>
-      <c r="E51" s="37" t="s">
+      <c r="E51" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F51" s="39" t="s">
+      <c r="F51" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="36"/>
-      <c r="H51" s="38" t="s">
+      <c r="H51" s="33" t="s">
         <v>62</v>
       </c>
       <c r="I51" s="5" t="s">
@@ -3690,13 +3582,9 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="38"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="14"/>
+      <c r="H52" s="33"/>
       <c r="I52" s="5" t="s">
         <v>37</v>
       </c>
@@ -3708,21 +3596,19 @@
       <c r="A53" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="37" t="s">
+      <c r="E53" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="39" t="s">
+      <c r="F53" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="36"/>
-      <c r="H53" s="38" t="s">
+      <c r="H53" s="33" t="s">
         <v>67</v>
       </c>
       <c r="I53" s="5" t="s">
@@ -3734,13 +3620,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="38"/>
+      <c r="H54" s="33"/>
       <c r="I54" s="5" t="s">
         <v>37</v>
       </c>
@@ -3752,21 +3632,19 @@
       <c r="A55" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F55" s="39" t="s">
+      <c r="F55" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="36"/>
-      <c r="H55" s="38" t="s">
+      <c r="H55" s="33" t="s">
         <v>70</v>
       </c>
       <c r="I55" s="5" t="s">
@@ -3778,13 +3656,9 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="38"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="14"/>
+      <c r="H56" s="33"/>
       <c r="I56" s="5" t="s">
         <v>37</v>
       </c>
@@ -3796,21 +3670,19 @@
       <c r="A57" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="36"/>
-      <c r="E57" s="37" t="s">
+      <c r="E57" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="39" t="s">
+      <c r="F57" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="36"/>
-      <c r="H57" s="38" t="s">
+      <c r="H57" s="33" t="s">
         <v>75</v>
       </c>
       <c r="I57" s="5" t="s">
@@ -3822,13 +3694,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="38"/>
+      <c r="H58" s="33"/>
       <c r="I58" s="5"/>
       <c r="J58" t="s">
         <v>52</v>
@@ -3838,21 +3704,19 @@
       <c r="A59" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="B59" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="36"/>
-      <c r="E59" s="37" t="s">
+      <c r="E59" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F59" s="39" t="s">
+      <c r="F59" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="36"/>
-      <c r="H59" s="38" t="s">
+      <c r="H59" s="33" t="s">
         <v>77</v>
       </c>
       <c r="I59" s="5" t="s">
@@ -3864,34 +3728,28 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="38"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="14"/>
+      <c r="H60" s="33"/>
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="36"/>
-      <c r="E61" s="37" t="s">
+      <c r="E61" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="39" t="s">
+      <c r="F61" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="36"/>
-      <c r="H61" s="38" t="s">
+      <c r="H61" s="33" t="s">
         <v>80</v>
       </c>
       <c r="I61" s="5" t="s">
@@ -3903,13 +3761,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="38"/>
+      <c r="H62" s="33"/>
       <c r="I62" s="5" t="s">
         <v>37</v>
       </c>
@@ -3921,21 +3773,19 @@
       <c r="A63" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="36"/>
-      <c r="E63" s="37" t="s">
+      <c r="E63" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F63" s="39" t="s">
+      <c r="F63" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="36"/>
-      <c r="H63" s="38" t="s">
+      <c r="H63" s="33" t="s">
         <v>83</v>
       </c>
       <c r="I63" s="5" t="s">
@@ -3947,13 +3797,9 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="38"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="14"/>
+      <c r="H64" s="33"/>
       <c r="I64" s="5" t="s">
         <v>37</v>
       </c>
@@ -3965,21 +3811,19 @@
       <c r="A65" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C65" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="37" t="s">
+      <c r="E65" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="39" t="s">
+      <c r="F65" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="36"/>
-      <c r="H65" s="38" t="s">
+      <c r="H65" s="33" t="s">
         <v>87</v>
       </c>
       <c r="I65" s="5" t="s">
@@ -3991,13 +3835,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="38"/>
+      <c r="H66" s="33"/>
       <c r="I66" s="5" t="s">
         <v>37</v>
       </c>
@@ -4009,21 +3847,19 @@
       <c r="A67" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="36"/>
-      <c r="E67" s="37" t="s">
+      <c r="E67" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F67" s="39" t="s">
+      <c r="F67" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G67" s="36"/>
-      <c r="H67" s="38" t="s">
+      <c r="H67" s="33" t="s">
         <v>91</v>
       </c>
       <c r="I67" s="5" t="s">
@@ -4035,13 +3871,9 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="38"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="14"/>
+      <c r="H68" s="33"/>
       <c r="I68" s="5" t="s">
         <v>37</v>
       </c>
@@ -4053,21 +3885,19 @@
       <c r="A69" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="36"/>
-      <c r="E69" s="37" t="s">
+      <c r="E69" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="39" t="s">
+      <c r="F69" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G69" s="36"/>
-      <c r="H69" s="38" t="s">
+      <c r="H69" s="33" t="s">
         <v>95</v>
       </c>
       <c r="I69" s="5" t="s">
@@ -4079,13 +3909,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="38"/>
+      <c r="H70" s="33"/>
       <c r="I70" s="5" t="s">
         <v>37</v>
       </c>
@@ -4097,21 +3921,19 @@
       <c r="A71" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B71" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" t="s">
         <v>57</v>
       </c>
-      <c r="D71" s="36"/>
-      <c r="E71" s="37" t="s">
+      <c r="E71" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F71" s="39" t="s">
+      <c r="F71" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="36"/>
-      <c r="H71" s="38" t="s">
+      <c r="H71" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I71" s="5" t="s">
@@ -4123,13 +3945,9 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="38"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="14"/>
+      <c r="H72" s="33"/>
       <c r="I72" s="5" t="s">
         <v>37</v>
       </c>
@@ -4138,21 +3956,19 @@
       <c r="A73" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" t="s">
         <v>101</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" t="s">
         <v>48</v>
       </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="37" t="s">
+      <c r="E73" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="39" t="s">
+      <c r="F73" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="36"/>
-      <c r="H73" s="38" t="s">
+      <c r="H73" s="33" t="s">
         <v>102</v>
       </c>
       <c r="I73" s="5" t="s">
@@ -4164,13 +3980,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="38"/>
+      <c r="H74" s="33"/>
       <c r="I74" s="16" t="s">
         <v>37</v>
       </c>
@@ -4182,21 +3992,19 @@
       <c r="A75" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B75" s="36" t="s">
+      <c r="B75" t="s">
         <v>101</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" t="s">
         <v>48</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="37" t="s">
+      <c r="E75" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F75" s="39" t="s">
+      <c r="F75" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G75" s="36"/>
-      <c r="H75" s="38" t="s">
+      <c r="H75" s="33" t="s">
         <v>106</v>
       </c>
       <c r="I75" s="16" t="s">
@@ -4208,34 +4016,28 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="38"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="14"/>
+      <c r="H76" s="33"/>
       <c r="I76" s="16"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" t="s">
         <v>110</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="36"/>
-      <c r="E77" s="37" t="s">
+      <c r="E77" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="39" t="s">
+      <c r="F77" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="36"/>
-      <c r="H77" s="38" t="s">
+      <c r="H77" s="33" t="s">
         <v>111</v>
       </c>
       <c r="I77" s="16" t="s">
@@ -4247,13 +4049,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="38"/>
+      <c r="H78" s="33"/>
       <c r="I78" s="16" t="s">
         <v>37</v>
       </c>
@@ -4265,21 +4061,19 @@
       <c r="A79" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B79" s="36" t="s">
+      <c r="B79" t="s">
         <v>115</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" t="s">
         <v>109</v>
       </c>
-      <c r="D79" s="36"/>
-      <c r="E79" s="37" t="s">
+      <c r="E79" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F79" s="39" t="s">
+      <c r="F79" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G79" s="36"/>
-      <c r="H79" s="38" t="s">
+      <c r="H79" s="33" t="s">
         <v>116</v>
       </c>
       <c r="I79" s="16" t="s">
@@ -4298,21 +4092,19 @@
       <c r="A81" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" t="s">
         <v>167</v>
       </c>
-      <c r="C81" s="36" t="s">
+      <c r="C81" t="s">
         <v>166</v>
       </c>
-      <c r="D81" s="36"/>
-      <c r="E81" s="37" t="s">
+      <c r="E81" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F81" s="39" t="s">
+      <c r="F81" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G81" s="36"/>
-      <c r="H81" s="38" t="s">
+      <c r="H81" s="33" t="s">
         <v>169</v>
       </c>
       <c r="I81" s="16" t="s">
@@ -4321,34 +4113,30 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="14"/>
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="B83" t="s">
         <v>171</v>
       </c>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36" t="s">
+      <c r="D83" t="s">
         <v>166</v>
       </c>
-      <c r="E83" s="37" t="s">
+      <c r="E83" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="39" t="s">
+      <c r="F83" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G83" s="36"/>
-      <c r="H83" s="38" t="s">
+      <c r="H83" s="33" t="s">
         <v>172</v>
       </c>
       <c r="I83" s="16" t="s">
@@ -4357,13 +4145,11 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="14"/>
       <c r="I84" s="5"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -4373,10 +4159,10 @@
       <c r="B85" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="C85" s="43" t="s">
+      <c r="C85" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="D85" s="43" t="s">
+      <c r="D85" s="20" t="s">
         <v>239</v>
       </c>
       <c r="E85" s="22" t="s">
@@ -4400,13 +4186,6 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
       <c r="I86" s="5"/>
       <c r="J86" t="s">
         <v>52</v>
@@ -4416,25 +4195,25 @@
       <c r="A87" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B87" s="36" t="s">
+      <c r="B87" t="s">
         <v>226</v>
       </c>
-      <c r="C87" s="44" t="s">
+      <c r="C87" t="s">
         <v>230</v>
       </c>
-      <c r="D87" s="44" t="s">
+      <c r="D87" t="s">
         <v>239</v>
       </c>
-      <c r="E87" s="37" t="s">
+      <c r="E87" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F87" s="39" t="s">
+      <c r="F87" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G87" s="38" t="s">
+      <c r="G87" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="H87" s="38" t="s">
+      <c r="H87" s="33" t="s">
         <v>124</v>
       </c>
       <c r="I87" s="16" t="s">
@@ -4446,13 +4225,6 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
-      <c r="B88" s="36"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
       <c r="I88" s="5"/>
     </row>
     <row r="89" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4462,10 +4234,10 @@
       <c r="B89" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C89" s="45" t="s">
+      <c r="C89" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D89" s="45" t="s">
+      <c r="D89" s="7" t="s">
         <v>239</v>
       </c>
       <c r="E89" s="10" t="s">
@@ -5045,14 +4817,14 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -5072,14 +4844,14 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5091,6 +4863,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100242A40D24892AF498C695C9593E24DC0" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9961a528af3751945d0a40c18870e762">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="baf931f2-6fe9-4780-9621-3e5dc3aada1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79c55ec8be7c17ddac26957f75e929ba" ns2:_="">
     <xsd:import namespace="baf931f2-6fe9-4780-9621-3e5dc3aada1a"/>
@@ -5254,22 +5041,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FD9C226-1ECF-4B6E-8FE0-2EB1627587FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28F15C24-0735-4C22-A5A1-CAC6D8D3E0C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAB6B74A-7717-46B5-814D-DC17C128071A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5285,21 +5074,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28F15C24-0735-4C22-A5A1-CAC6D8D3E0C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FD9C226-1ECF-4B6E-8FE0-2EB1627587FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>